--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60446983700002</v>
+        <v>26.22092992566423</v>
       </c>
       <c r="C2">
-        <v>13.94492119022281</v>
+        <v>14.43157110062061</v>
       </c>
       <c r="D2">
-        <v>8.160729891403616</v>
+        <v>3.86275238294204</v>
       </c>
       <c r="E2">
-        <v>5.750358083167872</v>
+        <v>6.165666173364183</v>
       </c>
       <c r="F2">
-        <v>63.57679481334934</v>
+        <v>32.40691488315893</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.287345463025879</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.303625169747344</v>
+        <v>7.50753682200434</v>
       </c>
       <c r="M2">
-        <v>14.22136363123551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.16115892469839</v>
+      </c>
+      <c r="O2">
+        <v>25.29265772699316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97798739485226</v>
+        <v>24.36866799958812</v>
       </c>
       <c r="C3">
-        <v>12.90163887852449</v>
+        <v>13.51955301318336</v>
       </c>
       <c r="D3">
-        <v>7.768985348805309</v>
+        <v>3.968510828276301</v>
       </c>
       <c r="E3">
-        <v>5.694521473261519</v>
+        <v>6.202517682687922</v>
       </c>
       <c r="F3">
-        <v>59.80898303375669</v>
+        <v>30.93461314089165</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.100776222730262</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.016039340439693</v>
+        <v>7.237243293791478</v>
       </c>
       <c r="M3">
-        <v>13.18832900961403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.44541300055206</v>
+      </c>
+      <c r="O3">
+        <v>24.33355726028429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9382172434231</v>
+        <v>23.24320732671869</v>
       </c>
       <c r="C4">
-        <v>12.23522232300388</v>
+        <v>12.93250157509755</v>
       </c>
       <c r="D4">
-        <v>7.525133166841365</v>
+        <v>4.034295470457475</v>
       </c>
       <c r="E4">
-        <v>5.662586835094221</v>
+        <v>6.227965013816122</v>
       </c>
       <c r="F4">
-        <v>57.44055772517312</v>
+        <v>30.03531868502996</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.988455038792036</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.84273369866068</v>
+        <v>7.072022626764821</v>
       </c>
       <c r="M4">
-        <v>12.5264579045694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.622569310272</v>
+      </c>
+      <c r="O4">
+        <v>23.75717864682395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50385051896783</v>
+        <v>22.78010300006265</v>
       </c>
       <c r="C5">
-        <v>11.95687337947846</v>
+        <v>12.68642840644617</v>
       </c>
       <c r="D5">
-        <v>7.424914179536392</v>
+        <v>4.061337161570422</v>
       </c>
       <c r="E5">
-        <v>5.650130438425006</v>
+        <v>6.239021892256334</v>
       </c>
       <c r="F5">
-        <v>56.46165060880946</v>
+        <v>29.67038198480816</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.943201939157123</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.772963481613929</v>
+        <v>7.004948558785484</v>
       </c>
       <c r="M5">
-        <v>12.24957178307599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.69547253843423</v>
+      </c>
+      <c r="O5">
+        <v>23.52560069806979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43107266757191</v>
+        <v>22.70252283232027</v>
       </c>
       <c r="C6">
-        <v>11.91023662235178</v>
+        <v>12.64515400700847</v>
       </c>
       <c r="D6">
-        <v>7.408221769575547</v>
+        <v>4.065842129395532</v>
       </c>
       <c r="E6">
-        <v>5.64809479437228</v>
+        <v>6.240898743327157</v>
       </c>
       <c r="F6">
-        <v>56.29827988530626</v>
+        <v>29.609888562092</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.93571789605991</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.761430866382538</v>
+        <v>6.993828501442273</v>
       </c>
       <c r="M6">
-        <v>12.20315575622738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.70762242238545</v>
+      </c>
+      <c r="O6">
+        <v>23.48735161823611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.93240273116399</v>
+        <v>23.2370075679172</v>
       </c>
       <c r="C7">
-        <v>12.23149621102105</v>
+        <v>12.92921069707307</v>
       </c>
       <c r="D7">
-        <v>7.523785009808265</v>
+        <v>4.034659190366405</v>
       </c>
       <c r="E7">
-        <v>5.662416629703166</v>
+        <v>6.228111377856335</v>
       </c>
       <c r="F7">
-        <v>57.42741126184241</v>
+        <v>30.03039030469789</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.987842691291239</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.841789248411538</v>
+        <v>7.071116914702731</v>
       </c>
       <c r="M7">
-        <v>12.52275303589686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.62354956602955</v>
+      </c>
+      <c r="O7">
+        <v>23.75404192104053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05198239680572</v>
+        <v>25.59397066460214</v>
       </c>
       <c r="C8">
-        <v>13.5903807327849</v>
+        <v>14.12269593778483</v>
       </c>
       <c r="D8">
-        <v>8.026330677045673</v>
+        <v>3.899054361974527</v>
       </c>
       <c r="E8">
-        <v>5.730596840807893</v>
+        <v>6.1777732539879</v>
       </c>
       <c r="F8">
-        <v>62.2890260244078</v>
+        <v>31.89847785677512</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.222524824662383</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.203799499570089</v>
+        <v>7.414224208959352</v>
       </c>
       <c r="M8">
-        <v>13.87075084668473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.25865685257924</v>
+      </c>
+      <c r="O8">
+        <v>24.95944810269752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89968084759547</v>
+        <v>29.90833427997736</v>
       </c>
       <c r="C9">
-        <v>16.06466974395227</v>
+        <v>16.25114346908268</v>
       </c>
       <c r="D9">
-        <v>8.987379926026339</v>
+        <v>3.638909845822065</v>
       </c>
       <c r="E9">
-        <v>5.884650795060295</v>
+        <v>6.102535208129319</v>
       </c>
       <c r="F9">
-        <v>71.39740621569682</v>
+        <v>35.58761275518334</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.702858001794391</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.956316050269489</v>
+        <v>8.090444491097296</v>
       </c>
       <c r="M9">
-        <v>16.3072325124303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.56146581849679</v>
+      </c>
+      <c r="O9">
+        <v>27.41734749087935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.56788060884831</v>
+        <v>32.82054558353338</v>
       </c>
       <c r="C10">
-        <v>17.79019364155824</v>
+        <v>17.69105308034495</v>
       </c>
       <c r="D10">
-        <v>9.683451406057593</v>
+        <v>3.449960239478078</v>
       </c>
       <c r="E10">
-        <v>6.013037107629982</v>
+        <v>6.063245366203376</v>
       </c>
       <c r="F10">
-        <v>77.86694075989648</v>
+        <v>38.30473135626276</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.072337173691572</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.775427703993667</v>
+        <v>8.586886107017985</v>
       </c>
       <c r="M10">
-        <v>17.99057952051508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.0568044925739</v>
+      </c>
+      <c r="O10">
+        <v>29.27685344370541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.75570175051658</v>
+        <v>34.09287885767044</v>
       </c>
       <c r="C11">
-        <v>18.56175142694368</v>
+        <v>18.32079225090695</v>
       </c>
       <c r="D11">
-        <v>9.9997641358046</v>
+        <v>3.364191705273196</v>
       </c>
       <c r="E11">
-        <v>6.075522957572085</v>
+        <v>6.049263372787758</v>
       </c>
       <c r="F11">
-        <v>80.77663582237446</v>
+        <v>39.5423290303955</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.245343174266596</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.139049473323007</v>
+        <v>8.812413899598162</v>
       </c>
       <c r="M11">
-        <v>18.73855812428781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.82800935774339</v>
+      </c>
+      <c r="O11">
+        <v>30.13479654083325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.20265406548674</v>
+        <v>34.56746733372203</v>
       </c>
       <c r="C12">
-        <v>18.85268486526898</v>
+        <v>18.55578199320367</v>
       </c>
       <c r="D12">
-        <v>10.11971164517792</v>
+        <v>3.331718990290856</v>
       </c>
       <c r="E12">
-        <v>6.099853168314248</v>
+        <v>6.044567941450074</v>
       </c>
       <c r="F12">
-        <v>81.87544444729188</v>
+        <v>40.01134087791196</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.311710824661072</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.275707846248963</v>
+        <v>8.897772104303012</v>
       </c>
       <c r="M12">
-        <v>19.01979429714438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.74140803048008</v>
+      </c>
+      <c r="O12">
+        <v>30.46152482123861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.10650553840906</v>
+        <v>34.46557151469828</v>
       </c>
       <c r="C13">
-        <v>18.7900697367458</v>
+        <v>18.50532469567984</v>
       </c>
       <c r="D13">
-        <v>10.09386729671862</v>
+        <v>3.338712603861232</v>
       </c>
       <c r="E13">
-        <v>6.094582023128673</v>
+        <v>6.045551856387788</v>
       </c>
       <c r="F13">
-        <v>81.63889750421373</v>
+        <v>39.91031138205607</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.297376660751574</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.246317517167823</v>
+        <v>8.879390477683787</v>
       </c>
       <c r="M13">
-        <v>18.95930434946102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.76005867245029</v>
+      </c>
+      <c r="O13">
+        <v>30.39107341496883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79252417198532</v>
+        <v>34.13206614594097</v>
       </c>
       <c r="C14">
-        <v>18.58570707264684</v>
+        <v>18.34019372916735</v>
       </c>
       <c r="D14">
-        <v>10.00962749621962</v>
+        <v>3.361520144430807</v>
       </c>
       <c r="E14">
-        <v>6.07751070015213</v>
+        <v>6.048864824237486</v>
       </c>
       <c r="F14">
-        <v>80.86708426653617</v>
+        <v>39.58090651337154</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.250785198567304</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.150311577421487</v>
+        <v>8.819437198349611</v>
       </c>
       <c r="M14">
-        <v>18.76173226787971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.82088427713671</v>
+      </c>
+      <c r="O14">
+        <v>30.16163880052648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.59985977720243</v>
+        <v>33.92685508048245</v>
       </c>
       <c r="C15">
-        <v>18.46039054495023</v>
+        <v>18.23859829127336</v>
       </c>
       <c r="D15">
-        <v>9.9580573257465</v>
+        <v>3.375490630993442</v>
       </c>
       <c r="E15">
-        <v>6.067143742139626</v>
+        <v>6.050973403912567</v>
       </c>
       <c r="F15">
-        <v>80.39399280205245</v>
+        <v>39.37918941371786</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.222362749740871</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.091378556079391</v>
+        <v>8.782708601294363</v>
       </c>
       <c r="M15">
-        <v>18.64047050112693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.85814448216906</v>
+      </c>
+      <c r="O15">
+        <v>30.02134824600644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.48980275462709</v>
+        <v>32.73636706645345</v>
       </c>
       <c r="C16">
-        <v>17.73955664152282</v>
+        <v>17.6494022209858</v>
       </c>
       <c r="D16">
-        <v>9.662789906034766</v>
+        <v>3.455567320425064</v>
       </c>
       <c r="E16">
-        <v>6.009042213792324</v>
+        <v>6.064240720278979</v>
       </c>
       <c r="F16">
-        <v>77.67625414373818</v>
+        <v>38.22389195841141</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.061141605305892</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.751503936646897</v>
+        <v>8.572140769413148</v>
       </c>
       <c r="M16">
-        <v>17.94138410434395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.0717662480814</v>
+      </c>
+      <c r="O16">
+        <v>29.22103503071173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.80274358439089</v>
+        <v>31.99282632539349</v>
       </c>
       <c r="C17">
-        <v>17.29436514266883</v>
+        <v>17.28157769317041</v>
       </c>
       <c r="D17">
-        <v>9.481701840162401</v>
+        <v>3.504723822714815</v>
       </c>
       <c r="E17">
-        <v>5.974497023309314</v>
+        <v>6.073403346723504</v>
       </c>
       <c r="F17">
-        <v>76.00157533552627</v>
+        <v>37.51561661288231</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.963592368801404</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.540865104765576</v>
+        <v>8.442880363387474</v>
       </c>
       <c r="M17">
-        <v>17.50832112717872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.20296438550025</v>
+      </c>
+      <c r="O17">
+        <v>28.73320944411944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.40505989327086</v>
+        <v>31.56020291125542</v>
       </c>
       <c r="C18">
-        <v>17.03699400472748</v>
+        <v>17.06762415570967</v>
       </c>
       <c r="D18">
-        <v>9.377497290181106</v>
+        <v>3.53301595019744</v>
       </c>
       <c r="E18">
-        <v>5.955006068318961</v>
+        <v>6.079037086287608</v>
       </c>
       <c r="F18">
-        <v>75.03507482801849</v>
+        <v>37.10836801699003</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.907937915599842</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.418846548188437</v>
+        <v>8.368503403600137</v>
       </c>
       <c r="M18">
-        <v>17.25752230643557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.27850392197906</v>
+      </c>
+      <c r="O18">
+        <v>28.45374763857158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.26995669608626</v>
+        <v>31.41286323256293</v>
       </c>
       <c r="C19">
-        <v>16.9496090405863</v>
+        <v>16.99476820460525</v>
       </c>
       <c r="D19">
-        <v>9.342201678184987</v>
+        <v>3.542599044862396</v>
       </c>
       <c r="E19">
-        <v>5.94846957067361</v>
+        <v>6.081005887295846</v>
       </c>
       <c r="F19">
-        <v>74.70722700948544</v>
+        <v>36.970501128571</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.889168266149934</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.377377624334482</v>
+        <v>8.34331580862832</v>
       </c>
       <c r="M19">
-        <v>17.17229695386516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.30409585916824</v>
+      </c>
+      <c r="O19">
+        <v>28.35931730410224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87613568770344</v>
+        <v>32.07248846950769</v>
       </c>
       <c r="C20">
-        <v>17.3418874521159</v>
+        <v>17.32097960369807</v>
       </c>
       <c r="D20">
-        <v>9.500982523131823</v>
+        <v>3.499489261533028</v>
       </c>
       <c r="E20">
-        <v>5.978134707228083</v>
+        <v>6.072390060053119</v>
       </c>
       <c r="F20">
-        <v>76.18017494000794</v>
+        <v>37.59099938197401</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.973928798704298</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.563375757527679</v>
+        <v>8.456643493492244</v>
       </c>
       <c r="M20">
-        <v>17.55459500626327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.18899058458751</v>
+      </c>
+      <c r="O20">
+        <v>28.78502256231899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88481748028549</v>
+        <v>34.23021779868842</v>
       </c>
       <c r="C21">
-        <v>18.64576076741543</v>
+        <v>18.38878973328699</v>
       </c>
       <c r="D21">
-        <v>10.03436422189933</v>
+        <v>3.35482100595971</v>
       </c>
       <c r="E21">
-        <v>6.082506093625316</v>
+        <v>6.047875124034323</v>
       </c>
       <c r="F21">
-        <v>81.09385015452469</v>
+        <v>39.67764928253952</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.264445717530366</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.178536702726623</v>
+        <v>8.83704804846475</v>
       </c>
       <c r="M21">
-        <v>18.81981350777625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.80301788198046</v>
+      </c>
+      <c r="O21">
+        <v>30.22897798715728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18155241916801</v>
+        <v>35.59853922102999</v>
       </c>
       <c r="C22">
-        <v>19.4911282942174</v>
+        <v>19.06647998812891</v>
       </c>
       <c r="D22">
-        <v>10.38407930611126</v>
+        <v>3.260299550509262</v>
       </c>
       <c r="E22">
-        <v>6.154664805761968</v>
+        <v>6.035367702896228</v>
       </c>
       <c r="F22">
-        <v>84.28877089945532</v>
+        <v>41.04364242955594</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.459389838163231</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.574692673117131</v>
+        <v>9.0854187356707</v>
       </c>
       <c r="M22">
-        <v>19.63535045725679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.55094998878697</v>
+      </c>
+      <c r="O22">
+        <v>31.18354343173645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.49058610157789</v>
+        <v>34.8719529633297</v>
       </c>
       <c r="C23">
-        <v>19.04029414525594</v>
+        <v>18.70657224121337</v>
       </c>
       <c r="D23">
-        <v>10.19723943935391</v>
+        <v>3.310750912071677</v>
       </c>
       <c r="E23">
-        <v>6.115759637382329</v>
+        <v>6.041707297982725</v>
       </c>
       <c r="F23">
-        <v>82.58436481508203</v>
+        <v>40.31430589173097</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.354821837274443</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.363696619870183</v>
+        <v>8.952876667994316</v>
       </c>
       <c r="M23">
-        <v>19.20090953984184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.68549132493767</v>
+      </c>
+      <c r="O23">
+        <v>30.67302269327857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84296354267018</v>
+        <v>32.03648928529285</v>
       </c>
       <c r="C24">
-        <v>17.3204071032917</v>
+        <v>17.30317375577978</v>
       </c>
       <c r="D24">
-        <v>9.492266036423604</v>
+        <v>3.50185570723474</v>
       </c>
       <c r="E24">
-        <v>5.976488965197528</v>
+        <v>6.072847029820255</v>
       </c>
       <c r="F24">
-        <v>76.09944172646613</v>
+        <v>37.55691900173041</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.969254376389719</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.553201574075279</v>
+        <v>8.450421379691557</v>
       </c>
       <c r="M24">
-        <v>17.53368031049974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.19530778568496</v>
+      </c>
+      <c r="O24">
+        <v>28.7615947578502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.88910905061299</v>
+        <v>28.78744900003078</v>
       </c>
       <c r="C25">
-        <v>15.41347219783005</v>
+        <v>15.69755653835719</v>
       </c>
       <c r="D25">
-        <v>8.729625695287629</v>
+        <v>3.708805501975561</v>
       </c>
       <c r="E25">
-        <v>5.840533772296511</v>
+        <v>6.120212758138348</v>
       </c>
       <c r="F25">
-        <v>68.97620495451046</v>
+        <v>34.58810817194959</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.57037409563938</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.737558234594177</v>
+        <v>7.907446456241423</v>
       </c>
       <c r="M25">
-        <v>15.66842748981876</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.74847017548684</v>
+      </c>
+      <c r="O25">
+        <v>26.74290482952269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.22092992566423</v>
+        <v>27.89224384145723</v>
       </c>
       <c r="C2">
-        <v>14.43157110062061</v>
+        <v>25.53521796938517</v>
       </c>
       <c r="D2">
-        <v>3.86275238294204</v>
+        <v>2.832171597702205</v>
       </c>
       <c r="E2">
-        <v>6.165666173364183</v>
+        <v>30.65112964922567</v>
       </c>
       <c r="F2">
-        <v>32.40691488315893</v>
+        <v>35.76045785144341</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.6918191149924</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.50753682200434</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.16115892469839</v>
+        <v>10.43052436411695</v>
       </c>
       <c r="O2">
-        <v>25.29265772699316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.36866799958812</v>
+        <v>25.8690973559204</v>
       </c>
       <c r="C3">
-        <v>13.51955301318336</v>
+        <v>23.64811534727382</v>
       </c>
       <c r="D3">
-        <v>3.968510828276301</v>
+        <v>2.901995547316055</v>
       </c>
       <c r="E3">
-        <v>6.202517682687922</v>
+        <v>28.2856695086953</v>
       </c>
       <c r="F3">
-        <v>30.93461314089165</v>
+        <v>33.51157788841211</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.86234232340837</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.237243293791478</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.44541300055206</v>
+        <v>10.75534152705677</v>
       </c>
       <c r="O3">
-        <v>24.33355726028429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24320732671869</v>
+        <v>24.56886541719781</v>
       </c>
       <c r="C4">
-        <v>12.93250157509755</v>
+        <v>22.43887115665011</v>
       </c>
       <c r="D4">
-        <v>4.034295470457475</v>
+        <v>2.950778573536812</v>
       </c>
       <c r="E4">
-        <v>6.227965013816122</v>
+        <v>26.78223290159744</v>
       </c>
       <c r="F4">
-        <v>30.03531868502996</v>
+        <v>32.11673084449058</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.37218320039116</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.072022626764821</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.622569310272</v>
+        <v>10.95620893751901</v>
       </c>
       <c r="O4">
-        <v>23.75717864682395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.78010300006265</v>
+        <v>24.024011323876</v>
       </c>
       <c r="C5">
-        <v>12.68642840644617</v>
+        <v>21.9329331374509</v>
       </c>
       <c r="D5">
-        <v>4.061337161570422</v>
+        <v>2.971934241416461</v>
       </c>
       <c r="E5">
-        <v>6.239021892256334</v>
+        <v>26.15589780263414</v>
       </c>
       <c r="F5">
-        <v>29.67038198480816</v>
+        <v>31.54488077637458</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.17714040642553</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.004948558785484</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.69547253843423</v>
+        <v>11.03852035811757</v>
       </c>
       <c r="O5">
-        <v>23.52560069806979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.70252283232027</v>
+        <v>23.93262154749294</v>
       </c>
       <c r="C6">
-        <v>12.64515400700847</v>
+        <v>21.84811538049378</v>
       </c>
       <c r="D6">
-        <v>4.065842129395532</v>
+        <v>2.975518788325037</v>
       </c>
       <c r="E6">
-        <v>6.240898743327157</v>
+        <v>26.05104692988678</v>
       </c>
       <c r="F6">
-        <v>29.609888562092</v>
+        <v>31.4497241916491</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.14503500080435</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.993828501442273</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.70762242238545</v>
+        <v>11.05221836368466</v>
       </c>
       <c r="O6">
-        <v>23.48735161823611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.2370075679172</v>
+        <v>24.56157856974056</v>
       </c>
       <c r="C7">
-        <v>12.92921069707307</v>
+        <v>22.43210174805364</v>
       </c>
       <c r="D7">
-        <v>4.034659190366405</v>
+        <v>2.951058968644663</v>
       </c>
       <c r="E7">
-        <v>6.228111377856335</v>
+        <v>26.77384232267411</v>
       </c>
       <c r="F7">
-        <v>30.03039030469789</v>
+        <v>32.10903233721145</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.36953387339548</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.071116914702731</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.62354956602955</v>
+        <v>10.95731704758016</v>
       </c>
       <c r="O7">
-        <v>23.75404192104053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.59397066460214</v>
+        <v>27.20644188986287</v>
       </c>
       <c r="C8">
-        <v>14.12269593778483</v>
+        <v>24.89475194270242</v>
       </c>
       <c r="D8">
-        <v>3.899054361974527</v>
+        <v>2.854880818658504</v>
       </c>
       <c r="E8">
-        <v>6.1777732539879</v>
+        <v>29.84557149924319</v>
       </c>
       <c r="F8">
-        <v>31.89847785677512</v>
+        <v>34.98794518070537</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.40176123970552</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.414224208959352</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.25865685257924</v>
+        <v>10.54228582856616</v>
       </c>
       <c r="O8">
-        <v>24.95944810269752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.90833427997736</v>
+        <v>31.95390871059898</v>
       </c>
       <c r="C9">
-        <v>16.25114346908268</v>
+        <v>29.34614839725322</v>
       </c>
       <c r="D9">
-        <v>3.638909845822065</v>
+        <v>2.725064155850748</v>
       </c>
       <c r="E9">
-        <v>6.102535208129319</v>
+        <v>35.50888037415339</v>
       </c>
       <c r="F9">
-        <v>35.58761275518334</v>
+        <v>40.71936342725972</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21.58589836896723</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.090444491097296</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.56146581849679</v>
+        <v>9.734920048140626</v>
       </c>
       <c r="O9">
-        <v>27.41734749087935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.82054558353338</v>
+        <v>35.20899690619861</v>
       </c>
       <c r="C10">
-        <v>17.69105308034495</v>
+        <v>32.42480879410017</v>
       </c>
       <c r="D10">
-        <v>3.449960239478078</v>
+        <v>2.686437085830508</v>
       </c>
       <c r="E10">
-        <v>6.063245366203376</v>
+        <v>39.52608479505155</v>
       </c>
       <c r="F10">
-        <v>38.30473135626276</v>
+        <v>45.04927224049077</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>23.46137708826828</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.586886107017985</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.0568044925739</v>
+        <v>9.138295400492124</v>
       </c>
       <c r="O10">
-        <v>29.27685344370541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.09287885767044</v>
+        <v>36.64903289826678</v>
       </c>
       <c r="C11">
-        <v>18.32079225090695</v>
+        <v>33.79468170902415</v>
       </c>
       <c r="D11">
-        <v>3.364191705273196</v>
+        <v>2.802270501529621</v>
       </c>
       <c r="E11">
-        <v>6.049263372787758</v>
+        <v>41.34489862209004</v>
       </c>
       <c r="F11">
-        <v>39.5423290303955</v>
+        <v>47.0090561452632</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>24.50204320246744</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.812413899598162</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.82800935774339</v>
+        <v>8.864282440005471</v>
       </c>
       <c r="O11">
-        <v>30.13479654083325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.56746733372203</v>
+        <v>37.18951412301791</v>
       </c>
       <c r="C12">
-        <v>18.55578199320367</v>
+        <v>34.31018023648721</v>
       </c>
       <c r="D12">
-        <v>3.331718990290856</v>
+        <v>2.868333720088487</v>
       </c>
       <c r="E12">
-        <v>6.044567941450074</v>
+        <v>42.03487325557064</v>
       </c>
       <c r="F12">
-        <v>40.01134087791196</v>
+        <v>47.75144517121521</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>24.89791480696733</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.897772104303012</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.74140803048008</v>
+        <v>8.759978261952378</v>
       </c>
       <c r="O12">
-        <v>30.46152482123861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.46557151469828</v>
+        <v>37.07330772437379</v>
       </c>
       <c r="C13">
-        <v>18.50532469567984</v>
+        <v>34.19928117885119</v>
       </c>
       <c r="D13">
-        <v>3.338712603861232</v>
+        <v>2.854046627931922</v>
       </c>
       <c r="E13">
-        <v>6.045551856387788</v>
+        <v>41.8861737691396</v>
       </c>
       <c r="F13">
-        <v>39.91031138205607</v>
+        <v>47.59151468370187</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>24.8125585108391</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.879390477683787</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.76005867245029</v>
+        <v>8.782468888334275</v>
       </c>
       <c r="O13">
-        <v>30.39107341496883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.13206614594097</v>
+        <v>36.69358868545579</v>
       </c>
       <c r="C14">
-        <v>18.34019372916735</v>
+        <v>33.83714944726741</v>
       </c>
       <c r="D14">
-        <v>3.361520144430807</v>
+        <v>2.807679439986999</v>
       </c>
       <c r="E14">
-        <v>6.048864824237486</v>
+        <v>41.40162213123212</v>
       </c>
       <c r="F14">
-        <v>39.58090651337154</v>
+        <v>47.07011630776556</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>24.53456929242983</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.819437198349611</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.82088427713671</v>
+        <v>8.855713119123976</v>
       </c>
       <c r="O14">
-        <v>30.16163880052648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.92685508048245</v>
+        <v>36.46040531118592</v>
       </c>
       <c r="C15">
-        <v>18.23859829127336</v>
+        <v>33.61495007675979</v>
       </c>
       <c r="D15">
-        <v>3.375490630993442</v>
+        <v>2.779445107277638</v>
       </c>
       <c r="E15">
-        <v>6.050973403912567</v>
+        <v>41.10506468584509</v>
       </c>
       <c r="F15">
-        <v>39.37918941371786</v>
+        <v>46.75083704250195</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>24.36455997979453</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.782708601294363</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.85814448216906</v>
+        <v>8.900501670395053</v>
       </c>
       <c r="O15">
-        <v>30.02134824600644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.73636706645345</v>
+        <v>35.11415047387673</v>
       </c>
       <c r="C16">
-        <v>17.6494022209858</v>
+        <v>32.33476151847924</v>
       </c>
       <c r="D16">
-        <v>3.455567320425064</v>
+        <v>2.686804271670232</v>
       </c>
       <c r="E16">
-        <v>6.064240720278979</v>
+        <v>39.40724449565233</v>
       </c>
       <c r="F16">
-        <v>38.22389195841141</v>
+        <v>44.92112993682738</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23.39355941073875</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.572140769413148</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.0717662480814</v>
+        <v>9.156136380598747</v>
       </c>
       <c r="O16">
-        <v>29.22103503071173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99282632539349</v>
+        <v>34.27850018936292</v>
       </c>
       <c r="C17">
-        <v>17.28157769317041</v>
+        <v>31.54231116136842</v>
       </c>
       <c r="D17">
-        <v>3.504723822714815</v>
+        <v>2.692148975013013</v>
       </c>
       <c r="E17">
-        <v>6.073403346723504</v>
+        <v>38.36504639182236</v>
       </c>
       <c r="F17">
-        <v>37.51561661288231</v>
+        <v>43.79718323619667</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.79996283749883</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.442880363387474</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.20296438550025</v>
+        <v>9.312177880031903</v>
       </c>
       <c r="O17">
-        <v>28.73320944411944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.56020291125542</v>
+        <v>33.79395079730131</v>
       </c>
       <c r="C18">
-        <v>17.06762415570967</v>
+        <v>31.08354948193687</v>
       </c>
       <c r="D18">
-        <v>3.53301595019744</v>
+        <v>2.696912017307172</v>
       </c>
       <c r="E18">
-        <v>6.079037086287608</v>
+        <v>37.76461027725734</v>
       </c>
       <c r="F18">
-        <v>37.10836801699003</v>
+        <v>43.14966030493462</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.53724894667092</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.368503403600137</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.27850392197906</v>
+        <v>9.401694381719757</v>
       </c>
       <c r="O18">
-        <v>28.45374763857158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.41286323256293</v>
+        <v>33.62919217798502</v>
       </c>
       <c r="C19">
-        <v>16.99476820460525</v>
+        <v>30.92768009769983</v>
       </c>
       <c r="D19">
-        <v>3.542599044862396</v>
+        <v>2.698797289575111</v>
       </c>
       <c r="E19">
-        <v>6.081005887295846</v>
+        <v>37.56107715196592</v>
       </c>
       <c r="F19">
-        <v>36.970501128571</v>
+        <v>42.9301943463528</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.44981463640258</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.34331580862832</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.30409585916824</v>
+        <v>9.431967747894014</v>
       </c>
       <c r="O19">
-        <v>28.35931730410224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.07248846950769</v>
+        <v>34.36785405854955</v>
       </c>
       <c r="C20">
-        <v>17.32097960369807</v>
+        <v>31.62696815066298</v>
       </c>
       <c r="D20">
-        <v>3.499489261533028</v>
+        <v>2.691401001045544</v>
       </c>
       <c r="E20">
-        <v>6.072390060053119</v>
+        <v>38.47607682449612</v>
       </c>
       <c r="F20">
-        <v>37.59099938197401</v>
+        <v>43.91692808665655</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.8630972389095</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.456643493492244</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.18899058458751</v>
+        <v>9.295592429770604</v>
       </c>
       <c r="O20">
-        <v>28.78502256231899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.23021779868842</v>
+        <v>36.80524309225987</v>
       </c>
       <c r="C21">
-        <v>18.38878973328699</v>
+        <v>33.94359370970107</v>
       </c>
       <c r="D21">
-        <v>3.35482100595971</v>
+        <v>2.821263155685663</v>
       </c>
       <c r="E21">
-        <v>6.047875124034323</v>
+        <v>41.54389039004901</v>
       </c>
       <c r="F21">
-        <v>39.67764928253952</v>
+        <v>47.223240701485</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>24.61616365802249</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.83704804846475</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.80301788198046</v>
+        <v>8.834215592678039</v>
       </c>
       <c r="O21">
-        <v>30.22897798715728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.59853922102999</v>
+        <v>38.37073018774941</v>
       </c>
       <c r="C22">
-        <v>19.06647998812891</v>
+        <v>35.43949575513994</v>
       </c>
       <c r="D22">
-        <v>3.260299550509262</v>
+        <v>3.016186424538375</v>
       </c>
       <c r="E22">
-        <v>6.035367702896228</v>
+        <v>43.55771486501173</v>
       </c>
       <c r="F22">
-        <v>41.04364242955594</v>
+        <v>49.38679053775825</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>25.77302394925639</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.0854187356707</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.55094998878697</v>
+        <v>8.529438670042039</v>
       </c>
       <c r="O22">
-        <v>31.18354343173645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.8719529633297</v>
+        <v>37.53731133210018</v>
       </c>
       <c r="C23">
-        <v>18.70657224121337</v>
+        <v>34.64230568001582</v>
       </c>
       <c r="D23">
-        <v>3.310750912071677</v>
+        <v>2.911368342441</v>
       </c>
       <c r="E23">
-        <v>6.041707297982725</v>
+        <v>42.48109190442835</v>
       </c>
       <c r="F23">
-        <v>40.31430589173097</v>
+        <v>48.23112682682929</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.15416912206458</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.952876667994316</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.68549132493767</v>
+        <v>8.692458214073199</v>
       </c>
       <c r="O23">
-        <v>30.67302269327857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.03648928529285</v>
+        <v>34.3274700905161</v>
       </c>
       <c r="C24">
-        <v>17.30317375577978</v>
+        <v>31.58870468796374</v>
       </c>
       <c r="D24">
-        <v>3.50185570723474</v>
+        <v>2.691733941375474</v>
       </c>
       <c r="E24">
-        <v>6.072847029820255</v>
+        <v>38.42588407579172</v>
       </c>
       <c r="F24">
-        <v>37.55691900173041</v>
+        <v>43.86279576860355</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.83455325435763</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.450421379691557</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.19530778568496</v>
+        <v>9.303091303087614</v>
       </c>
       <c r="O24">
-        <v>28.7615947578502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.78744900003078</v>
+        <v>30.71334671749554</v>
       </c>
       <c r="C25">
-        <v>15.69755653835719</v>
+        <v>28.17878994886883</v>
       </c>
       <c r="D25">
-        <v>3.708805501975561</v>
+        <v>2.75199226920539</v>
       </c>
       <c r="E25">
-        <v>6.120212758138348</v>
+        <v>34.00842044304628</v>
       </c>
       <c r="F25">
-        <v>34.58810817194959</v>
+        <v>39.10715717819856</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20.97646300240387</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.907446456241423</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.74847017548684</v>
+        <v>9.953360150729807</v>
       </c>
       <c r="O25">
-        <v>26.74290482952269</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.89224384145723</v>
+        <v>16.86326320006514</v>
       </c>
       <c r="C2">
-        <v>25.53521796938517</v>
+        <v>14.03311813798708</v>
       </c>
       <c r="D2">
-        <v>2.832171597702205</v>
+        <v>4.67553686572749</v>
       </c>
       <c r="E2">
-        <v>30.65112964922567</v>
+        <v>16.49936937945428</v>
       </c>
       <c r="F2">
-        <v>35.76045785144341</v>
+        <v>30.04103356718291</v>
       </c>
       <c r="I2">
-        <v>19.6918191149924</v>
+        <v>21.78920218704911</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.43052436411695</v>
+        <v>16.63493714321157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.8690973559204</v>
+        <v>16.09950608411895</v>
       </c>
       <c r="C3">
-        <v>23.64811534727382</v>
+        <v>13.20107851691508</v>
       </c>
       <c r="D3">
-        <v>2.901995547316055</v>
+        <v>4.705322109001955</v>
       </c>
       <c r="E3">
-        <v>28.2856695086953</v>
+        <v>15.55653740869772</v>
       </c>
       <c r="F3">
-        <v>33.51157788841211</v>
+        <v>29.53962476997393</v>
       </c>
       <c r="I3">
-        <v>18.86234232340837</v>
+        <v>21.71450993813013</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.75534152705677</v>
+        <v>16.71323766419159</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56886541719781</v>
+        <v>15.6165365790916</v>
       </c>
       <c r="C4">
-        <v>22.43887115665011</v>
+        <v>12.66614278142704</v>
       </c>
       <c r="D4">
-        <v>2.950778573536812</v>
+        <v>4.724737553455235</v>
       </c>
       <c r="E4">
-        <v>26.78223290159744</v>
+        <v>14.9537146056006</v>
       </c>
       <c r="F4">
-        <v>32.11673084449058</v>
+        <v>29.24008450748608</v>
       </c>
       <c r="I4">
-        <v>18.37218320039116</v>
+        <v>21.67630736357052</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.95620893751901</v>
+        <v>16.7632661077178</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.024011323876</v>
+        <v>15.4165069466694</v>
       </c>
       <c r="C5">
-        <v>21.9329331374509</v>
+        <v>12.44229443434551</v>
       </c>
       <c r="D5">
-        <v>2.971934241416461</v>
+        <v>4.732931184931721</v>
       </c>
       <c r="E5">
-        <v>26.15589780263414</v>
+        <v>14.70231493588561</v>
       </c>
       <c r="F5">
-        <v>31.54488077637458</v>
+        <v>29.12027612849793</v>
       </c>
       <c r="I5">
-        <v>18.17714040642553</v>
+        <v>21.66266416984451</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.03852035811757</v>
+        <v>16.78414567939432</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.93262154749294</v>
+        <v>15.38310782455767</v>
       </c>
       <c r="C6">
-        <v>21.84811538049378</v>
+        <v>12.40477725121553</v>
       </c>
       <c r="D6">
-        <v>2.975518788325037</v>
+        <v>4.734308694129534</v>
       </c>
       <c r="E6">
-        <v>26.05104692988678</v>
+        <v>14.66023221925074</v>
       </c>
       <c r="F6">
-        <v>31.4497241916491</v>
+        <v>29.10052298770863</v>
       </c>
       <c r="I6">
-        <v>18.14503500080435</v>
+        <v>21.66051488219825</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.05221836368466</v>
+        <v>16.78764252021187</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.56157856974056</v>
+        <v>15.61385148993465</v>
       </c>
       <c r="C7">
-        <v>22.43210174805364</v>
+        <v>12.66314731696181</v>
       </c>
       <c r="D7">
-        <v>2.951058968644663</v>
+        <v>4.724846917373409</v>
       </c>
       <c r="E7">
-        <v>26.77384232267411</v>
+        <v>14.95034700444685</v>
       </c>
       <c r="F7">
-        <v>32.10903233721145</v>
+        <v>29.23845938126506</v>
       </c>
       <c r="I7">
-        <v>18.36953387339548</v>
+        <v>21.67611557741753</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.95731704758016</v>
+        <v>16.76354570006199</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.20644188986287</v>
+        <v>16.60300276344202</v>
       </c>
       <c r="C8">
-        <v>24.89475194270242</v>
+        <v>13.75132760860096</v>
       </c>
       <c r="D8">
-        <v>2.854880818658504</v>
+        <v>4.685571788110286</v>
       </c>
       <c r="E8">
-        <v>29.84557149924319</v>
+        <v>16.17939195783057</v>
       </c>
       <c r="F8">
-        <v>34.98794518070537</v>
+        <v>29.86651887182369</v>
       </c>
       <c r="I8">
-        <v>19.40176123970552</v>
+        <v>21.76185885306386</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.54228582856616</v>
+        <v>16.66153121405278</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.95390871059898</v>
+        <v>18.41988254978029</v>
       </c>
       <c r="C9">
-        <v>29.34614839725322</v>
+        <v>15.68778390903621</v>
       </c>
       <c r="D9">
-        <v>2.725064155850748</v>
+        <v>4.617579445633492</v>
       </c>
       <c r="E9">
-        <v>35.50888037415339</v>
+        <v>18.48260987542155</v>
       </c>
       <c r="F9">
-        <v>40.71936342725972</v>
+        <v>31.15683926971352</v>
       </c>
       <c r="I9">
-        <v>21.58589836896723</v>
+        <v>21.99069407608192</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.734920048140626</v>
+        <v>16.47688076695082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.20899690619861</v>
+        <v>19.6668466125248</v>
       </c>
       <c r="C10">
-        <v>32.42480879410017</v>
+        <v>16.9834811505773</v>
       </c>
       <c r="D10">
-        <v>2.686437085830508</v>
+        <v>4.57324683375428</v>
       </c>
       <c r="E10">
-        <v>39.52608479505155</v>
+        <v>20.14762134080832</v>
       </c>
       <c r="F10">
-        <v>45.04927224049077</v>
+        <v>32.13060688052058</v>
       </c>
       <c r="I10">
-        <v>23.46137708826828</v>
+        <v>22.19553433515441</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.138295400492124</v>
+        <v>16.35048352457731</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.64903289826678</v>
+        <v>20.21292546750902</v>
       </c>
       <c r="C11">
-        <v>33.79468170902415</v>
+        <v>17.54442871298576</v>
       </c>
       <c r="D11">
-        <v>2.802270501529621</v>
+        <v>4.554327269562337</v>
       </c>
       <c r="E11">
-        <v>41.34489862209004</v>
+        <v>20.8636324526438</v>
       </c>
       <c r="F11">
-        <v>47.0090561452632</v>
+        <v>32.57707905736765</v>
       </c>
       <c r="I11">
-        <v>24.50204320246744</v>
+        <v>22.29657491870482</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.864282440005471</v>
+        <v>16.29496772538405</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.18951412301791</v>
+        <v>20.41652675317806</v>
       </c>
       <c r="C12">
-        <v>34.31018023648721</v>
+        <v>17.75269737804442</v>
       </c>
       <c r="D12">
-        <v>2.868333720088487</v>
+        <v>4.547344847858403</v>
       </c>
       <c r="E12">
-        <v>42.03487325557064</v>
+        <v>21.12885469364625</v>
       </c>
       <c r="F12">
-        <v>47.75144517121521</v>
+        <v>32.746477391517</v>
       </c>
       <c r="I12">
-        <v>24.89791480696733</v>
+        <v>22.33595195382016</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.759978261952378</v>
+        <v>16.27422853150778</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.07330772437379</v>
+        <v>20.37282133760514</v>
       </c>
       <c r="C13">
-        <v>34.19928117885119</v>
+        <v>17.70802830472552</v>
       </c>
       <c r="D13">
-        <v>2.854046627931922</v>
+        <v>4.548840499488057</v>
       </c>
       <c r="E13">
-        <v>41.8861737691396</v>
+        <v>21.07199681444409</v>
       </c>
       <c r="F13">
-        <v>47.59151468370187</v>
+        <v>32.70998251709078</v>
       </c>
       <c r="I13">
-        <v>24.8125585108391</v>
+        <v>22.32742206977603</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.782468888334275</v>
+        <v>16.27868250921821</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.69358868545579</v>
+        <v>20.22974047279995</v>
       </c>
       <c r="C14">
-        <v>33.83714944726741</v>
+        <v>17.56164654247367</v>
       </c>
       <c r="D14">
-        <v>2.807679439986999</v>
+        <v>4.553749158419958</v>
       </c>
       <c r="E14">
-        <v>41.40162213123212</v>
+        <v>20.88557077964896</v>
       </c>
       <c r="F14">
-        <v>47.07011630776556</v>
+        <v>32.59100994671133</v>
       </c>
       <c r="I14">
-        <v>24.53456929242983</v>
+        <v>22.29979223527027</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.855713119123976</v>
+        <v>16.29325582873647</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.46040531118592</v>
+        <v>20.14168044635809</v>
       </c>
       <c r="C15">
-        <v>33.61495007675979</v>
+        <v>17.47144162304754</v>
       </c>
       <c r="D15">
-        <v>2.779445107277638</v>
+        <v>4.55677963612174</v>
       </c>
       <c r="E15">
-        <v>41.10506468584509</v>
+        <v>20.77061022358257</v>
       </c>
       <c r="F15">
-        <v>46.75083704250195</v>
+        <v>32.51817357174709</v>
       </c>
       <c r="I15">
-        <v>24.36455997979453</v>
+        <v>22.28301290865018</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.900501670395053</v>
+        <v>16.30221926869253</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.11415047387673</v>
+        <v>19.6307203331286</v>
       </c>
       <c r="C16">
-        <v>32.33476151847924</v>
+        <v>16.94624387798889</v>
       </c>
       <c r="D16">
-        <v>2.686804271670232</v>
+        <v>4.574508595819851</v>
       </c>
       <c r="E16">
-        <v>39.40724449565233</v>
+        <v>20.09999839105503</v>
       </c>
       <c r="F16">
-        <v>44.92112993682738</v>
+        <v>32.10148429507814</v>
       </c>
       <c r="I16">
-        <v>23.39355941073875</v>
+        <v>22.18908800856398</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.156136380598747</v>
+        <v>16.35415136799237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.27850018936292</v>
+        <v>19.31173138345702</v>
       </c>
       <c r="C17">
-        <v>31.54231116136842</v>
+        <v>16.6167153150177</v>
       </c>
       <c r="D17">
-        <v>2.692148975013013</v>
+        <v>4.585706082447154</v>
       </c>
       <c r="E17">
-        <v>38.36504639182236</v>
+        <v>19.67802134919618</v>
       </c>
       <c r="F17">
-        <v>43.79718323619667</v>
+        <v>31.84662989864033</v>
       </c>
       <c r="I17">
-        <v>22.79996283749883</v>
+        <v>22.13347098353924</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.312177880031903</v>
+        <v>16.38651668687908</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.79395079730131</v>
+        <v>19.12627153843833</v>
       </c>
       <c r="C18">
-        <v>31.08354948193687</v>
+        <v>16.42450161079787</v>
       </c>
       <c r="D18">
-        <v>2.696912017307172</v>
+        <v>4.592263842929481</v>
       </c>
       <c r="E18">
-        <v>37.76461027725734</v>
+        <v>19.43141118104568</v>
       </c>
       <c r="F18">
-        <v>43.14966030493462</v>
+        <v>31.70038403248875</v>
       </c>
       <c r="I18">
-        <v>22.53724894667092</v>
+        <v>22.10222220004287</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.401694381719757</v>
+        <v>16.40531910759829</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.62919217798502</v>
+        <v>19.06314168284407</v>
       </c>
       <c r="C19">
-        <v>30.92768009769983</v>
+        <v>16.35896341945634</v>
       </c>
       <c r="D19">
-        <v>2.698797289575111</v>
+        <v>4.59450425055316</v>
       </c>
       <c r="E19">
-        <v>37.56107715196592</v>
+        <v>19.34724216780952</v>
       </c>
       <c r="F19">
-        <v>42.9301943463528</v>
+        <v>31.65093142035202</v>
       </c>
       <c r="I19">
-        <v>22.44981463640258</v>
+        <v>22.09176951546285</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.431967747894014</v>
+        <v>16.41171741009099</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.36785405854955</v>
+        <v>19.34589493503634</v>
       </c>
       <c r="C20">
-        <v>31.62696815066298</v>
+        <v>16.65207176417217</v>
       </c>
       <c r="D20">
-        <v>2.691401001045544</v>
+        <v>4.584501936216114</v>
       </c>
       <c r="E20">
-        <v>38.47607682449612</v>
+        <v>19.72334489026741</v>
       </c>
       <c r="F20">
-        <v>43.91692808665655</v>
+        <v>31.87372571133859</v>
       </c>
       <c r="I20">
-        <v>22.8630972389095</v>
+        <v>22.13931495439393</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.295592429770604</v>
+        <v>16.38305202843518</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.80524309225987</v>
+        <v>20.27185430467744</v>
       </c>
       <c r="C21">
-        <v>33.94359370970107</v>
+        <v>17.6047554181689</v>
       </c>
       <c r="D21">
-        <v>2.821263155685663</v>
+        <v>4.552302405222759</v>
       </c>
       <c r="E21">
-        <v>41.54389039004901</v>
+        <v>20.94048886148515</v>
       </c>
       <c r="F21">
-        <v>47.223240701485</v>
+        <v>32.62594750916708</v>
       </c>
       <c r="I21">
-        <v>24.61616365802249</v>
+        <v>22.30787765259198</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.834215592678039</v>
+        <v>16.28896761276249</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.37073018774941</v>
+        <v>20.85839602782384</v>
       </c>
       <c r="C22">
-        <v>35.43949575513994</v>
+        <v>18.20328529036729</v>
       </c>
       <c r="D22">
-        <v>3.016186424538375</v>
+        <v>4.532320332899815</v>
       </c>
       <c r="E22">
-        <v>43.55771486501173</v>
+        <v>21.70150014141525</v>
       </c>
       <c r="F22">
-        <v>49.38679053775825</v>
+        <v>33.11940869294305</v>
       </c>
       <c r="I22">
-        <v>25.77302394925639</v>
+        <v>22.42453451260911</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.529438670042039</v>
+        <v>16.22912929585626</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.53731133210018</v>
+        <v>20.54709322075044</v>
       </c>
       <c r="C23">
-        <v>34.64230568001582</v>
+        <v>17.88602087264057</v>
       </c>
       <c r="D23">
-        <v>2.911368342441</v>
+        <v>4.542887053555599</v>
       </c>
       <c r="E23">
-        <v>42.48109190442835</v>
+        <v>21.29847450150497</v>
       </c>
       <c r="F23">
-        <v>48.23112682682929</v>
+        <v>32.85592695077821</v>
       </c>
       <c r="I23">
-        <v>25.15416912206458</v>
+        <v>22.36168411516848</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.692458214073199</v>
+        <v>16.26091560062929</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.3274700905161</v>
+        <v>19.33045602631613</v>
       </c>
       <c r="C24">
-        <v>31.58870468796374</v>
+        <v>16.63609571632843</v>
       </c>
       <c r="D24">
-        <v>2.691733941375474</v>
+        <v>4.58504595660068</v>
       </c>
       <c r="E24">
-        <v>38.42588407579172</v>
+        <v>19.70286661040437</v>
       </c>
       <c r="F24">
-        <v>43.86279576860355</v>
+        <v>31.86147482979894</v>
       </c>
       <c r="I24">
-        <v>22.83455325435763</v>
+        <v>22.13667063217627</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.303091303087614</v>
+        <v>16.38461779248437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.71334671749554</v>
+        <v>17.94299181732663</v>
       </c>
       <c r="C25">
-        <v>28.17878994886883</v>
+        <v>15.18584752800484</v>
       </c>
       <c r="D25">
-        <v>2.75199226920539</v>
+        <v>4.634995031346753</v>
       </c>
       <c r="E25">
-        <v>34.00842044304628</v>
+        <v>17.83247183317552</v>
       </c>
       <c r="F25">
-        <v>39.10715717819856</v>
+        <v>30.80252218164245</v>
       </c>
       <c r="I25">
-        <v>20.97646300240387</v>
+        <v>21.92230873480763</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.953360150729807</v>
+        <v>16.52519767638384</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.86326320006514</v>
+        <v>27.8922438414572</v>
       </c>
       <c r="C2">
-        <v>14.03311813798708</v>
+        <v>25.53521796938514</v>
       </c>
       <c r="D2">
-        <v>4.67553686572749</v>
+        <v>2.832171597702332</v>
       </c>
       <c r="E2">
-        <v>16.49936937945428</v>
+        <v>30.65112964922558</v>
       </c>
       <c r="F2">
-        <v>30.04103356718291</v>
+        <v>35.76045785144338</v>
       </c>
       <c r="I2">
-        <v>21.78920218704911</v>
+        <v>19.69181911499242</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.63493714321157</v>
+        <v>10.43052436411699</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.09950608411895</v>
+        <v>25.86909735592042</v>
       </c>
       <c r="C3">
-        <v>13.20107851691508</v>
+        <v>23.64811534727374</v>
       </c>
       <c r="D3">
-        <v>4.705322109001955</v>
+        <v>2.901995547316124</v>
       </c>
       <c r="E3">
-        <v>15.55653740869772</v>
+        <v>28.28566950869536</v>
       </c>
       <c r="F3">
-        <v>29.53962476997393</v>
+        <v>33.51157788841216</v>
       </c>
       <c r="I3">
-        <v>21.71450993813013</v>
+        <v>18.86234232340843</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.71323766419159</v>
+        <v>10.75534152705688</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.6165365790916</v>
+        <v>24.56886541719793</v>
       </c>
       <c r="C4">
-        <v>12.66614278142704</v>
+        <v>22.43887115665024</v>
       </c>
       <c r="D4">
-        <v>4.724737553455235</v>
+        <v>2.950778573536827</v>
       </c>
       <c r="E4">
-        <v>14.9537146056006</v>
+        <v>26.78223290159749</v>
       </c>
       <c r="F4">
-        <v>29.24008450748608</v>
+        <v>32.11673084449058</v>
       </c>
       <c r="I4">
-        <v>21.67630736357052</v>
+        <v>18.3721832003911</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.7632661077178</v>
+        <v>10.95620893751895</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.4165069466694</v>
+        <v>24.02401132387598</v>
       </c>
       <c r="C5">
-        <v>12.44229443434551</v>
+        <v>21.93293313745091</v>
       </c>
       <c r="D5">
-        <v>4.732931184931721</v>
+        <v>2.971934241416565</v>
       </c>
       <c r="E5">
-        <v>14.70231493588561</v>
+        <v>26.15589780263409</v>
       </c>
       <c r="F5">
-        <v>29.12027612849793</v>
+        <v>31.54488077637458</v>
       </c>
       <c r="I5">
-        <v>21.66266416984451</v>
+        <v>18.17714040642554</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78414567939432</v>
+        <v>11.0385203581176</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38310782455767</v>
+        <v>23.93262154749285</v>
       </c>
       <c r="C6">
-        <v>12.40477725121553</v>
+        <v>21.84811538049381</v>
       </c>
       <c r="D6">
-        <v>4.734308694129534</v>
+        <v>2.975518788325161</v>
       </c>
       <c r="E6">
-        <v>14.66023221925074</v>
+        <v>26.05104692988678</v>
       </c>
       <c r="F6">
-        <v>29.10052298770863</v>
+        <v>31.44972419164919</v>
       </c>
       <c r="I6">
-        <v>21.66051488219825</v>
+        <v>18.14503500080446</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78764252021187</v>
+        <v>11.05221836368472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61385148993465</v>
+        <v>24.56157856974053</v>
       </c>
       <c r="C7">
-        <v>12.66314731696181</v>
+        <v>22.43210174805363</v>
       </c>
       <c r="D7">
-        <v>4.724846917373409</v>
+        <v>2.951058968644772</v>
       </c>
       <c r="E7">
-        <v>14.95034700444685</v>
+        <v>26.77384232267414</v>
       </c>
       <c r="F7">
-        <v>29.23845938126506</v>
+        <v>32.10903233721145</v>
       </c>
       <c r="I7">
-        <v>21.67611557741753</v>
+        <v>18.36953387339553</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.76354570006199</v>
+        <v>10.95731704758019</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.60300276344202</v>
+        <v>27.20644188986281</v>
       </c>
       <c r="C8">
-        <v>13.75132760860096</v>
+        <v>24.89475194270237</v>
       </c>
       <c r="D8">
-        <v>4.685571788110286</v>
+        <v>2.854880818658449</v>
       </c>
       <c r="E8">
-        <v>16.17939195783057</v>
+        <v>29.84557149924314</v>
       </c>
       <c r="F8">
-        <v>29.86651887182369</v>
+        <v>34.98794518070542</v>
       </c>
       <c r="I8">
-        <v>21.76185885306386</v>
+        <v>19.4017612397056</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.66153121405278</v>
+        <v>10.5422858285662</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.41988254978029</v>
+        <v>31.95390871059899</v>
       </c>
       <c r="C9">
-        <v>15.68778390903621</v>
+        <v>29.34614839725324</v>
       </c>
       <c r="D9">
-        <v>4.617579445633492</v>
+        <v>2.725064155850748</v>
       </c>
       <c r="E9">
-        <v>18.48260987542155</v>
+        <v>35.50888037415337</v>
       </c>
       <c r="F9">
-        <v>31.15683926971352</v>
+        <v>40.71936342725971</v>
       </c>
       <c r="I9">
-        <v>21.99069407608192</v>
+        <v>21.58589836896723</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.47688076695082</v>
+        <v>9.734920048140623</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6668466125248</v>
+        <v>35.2089969061988</v>
       </c>
       <c r="C10">
-        <v>16.9834811505773</v>
+        <v>32.42480879410015</v>
       </c>
       <c r="D10">
-        <v>4.57324683375428</v>
+        <v>2.686437085830421</v>
       </c>
       <c r="E10">
-        <v>20.14762134080832</v>
+        <v>39.52608479505153</v>
       </c>
       <c r="F10">
-        <v>32.13060688052058</v>
+        <v>45.04927224049089</v>
       </c>
       <c r="I10">
-        <v>22.19553433515441</v>
+        <v>23.46137708826839</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.35048352457731</v>
+        <v>9.13829540049213</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.21292546750902</v>
+        <v>36.64903289826663</v>
       </c>
       <c r="C11">
-        <v>17.54442871298576</v>
+        <v>33.79468170902404</v>
       </c>
       <c r="D11">
-        <v>4.554327269562337</v>
+        <v>2.802270501529564</v>
       </c>
       <c r="E11">
-        <v>20.8636324526438</v>
+        <v>41.34489862208996</v>
       </c>
       <c r="F11">
-        <v>32.57707905736765</v>
+        <v>47.00905614526303</v>
       </c>
       <c r="I11">
-        <v>22.29657491870482</v>
+        <v>24.50204320246736</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.29496772538405</v>
+        <v>8.864282440005534</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.41652675317806</v>
+        <v>37.18951412301802</v>
       </c>
       <c r="C12">
-        <v>17.75269737804442</v>
+        <v>34.31018023648713</v>
       </c>
       <c r="D12">
-        <v>4.547344847858403</v>
+        <v>2.86833372008839</v>
       </c>
       <c r="E12">
-        <v>21.12885469364625</v>
+        <v>42.03487325557084</v>
       </c>
       <c r="F12">
-        <v>32.746477391517</v>
+        <v>47.75144517121539</v>
       </c>
       <c r="I12">
-        <v>22.33595195382016</v>
+        <v>24.89791480696746</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.27422853150778</v>
+        <v>8.75997826195233</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.37282133760514</v>
+        <v>37.07330772437369</v>
       </c>
       <c r="C13">
-        <v>17.70802830472552</v>
+        <v>34.19928117885117</v>
       </c>
       <c r="D13">
-        <v>4.548840499488057</v>
+        <v>2.854046627932032</v>
       </c>
       <c r="E13">
-        <v>21.07199681444409</v>
+        <v>41.88617376913957</v>
       </c>
       <c r="F13">
-        <v>32.70998251709078</v>
+        <v>47.59151468370174</v>
       </c>
       <c r="I13">
-        <v>22.32742206977603</v>
+        <v>24.81255851083904</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.27868250921821</v>
+        <v>8.782468888334307</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.22974047279995</v>
+        <v>36.69358868545592</v>
       </c>
       <c r="C14">
-        <v>17.56164654247367</v>
+        <v>33.83714944726761</v>
       </c>
       <c r="D14">
-        <v>4.553749158419958</v>
+        <v>2.807679439987127</v>
       </c>
       <c r="E14">
-        <v>20.88557077964896</v>
+        <v>41.40162213123225</v>
       </c>
       <c r="F14">
-        <v>32.59100994671133</v>
+        <v>47.07011630776576</v>
       </c>
       <c r="I14">
-        <v>22.29979223527027</v>
+        <v>24.53456929242995</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.29325582873647</v>
+        <v>8.855713119123889</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.14168044635809</v>
+        <v>36.46040531118607</v>
       </c>
       <c r="C15">
-        <v>17.47144162304754</v>
+        <v>33.61495007676001</v>
       </c>
       <c r="D15">
-        <v>4.55677963612174</v>
+        <v>2.779445107277638</v>
       </c>
       <c r="E15">
-        <v>20.77061022358257</v>
+        <v>41.10506468584514</v>
       </c>
       <c r="F15">
-        <v>32.51817357174709</v>
+        <v>46.75083704250225</v>
       </c>
       <c r="I15">
-        <v>22.28301290865018</v>
+        <v>24.3645599797947</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.30221926869253</v>
+        <v>8.900501670394972</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.6307203331286</v>
+        <v>35.11415047387663</v>
       </c>
       <c r="C16">
-        <v>16.94624387798889</v>
+        <v>32.33476151847919</v>
       </c>
       <c r="D16">
-        <v>4.574508595819851</v>
+        <v>2.686804271670328</v>
       </c>
       <c r="E16">
-        <v>20.09999839105503</v>
+        <v>39.40724449565226</v>
       </c>
       <c r="F16">
-        <v>32.10148429507814</v>
+        <v>44.92112993682731</v>
       </c>
       <c r="I16">
-        <v>22.18908800856398</v>
+        <v>23.39355941073868</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.35415136799237</v>
+        <v>9.156136380598845</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.31173138345702</v>
+        <v>34.27850018936301</v>
       </c>
       <c r="C17">
-        <v>16.6167153150177</v>
+        <v>31.54231116136836</v>
       </c>
       <c r="D17">
-        <v>4.585706082447154</v>
+        <v>2.692148975013126</v>
       </c>
       <c r="E17">
-        <v>19.67802134919618</v>
+        <v>38.36504639182245</v>
       </c>
       <c r="F17">
-        <v>31.84662989864033</v>
+        <v>43.79718323619682</v>
       </c>
       <c r="I17">
-        <v>22.13347098353924</v>
+        <v>22.79996283749892</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.38651668687908</v>
+        <v>9.312177880031811</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.12627153843833</v>
+        <v>33.79395079730128</v>
       </c>
       <c r="C18">
-        <v>16.42450161079787</v>
+        <v>31.08354948193671</v>
       </c>
       <c r="D18">
-        <v>4.592263842929481</v>
+        <v>2.696912017307227</v>
       </c>
       <c r="E18">
-        <v>19.43141118104568</v>
+        <v>37.76461027725721</v>
       </c>
       <c r="F18">
-        <v>31.70038403248875</v>
+        <v>43.14966030493457</v>
       </c>
       <c r="I18">
-        <v>22.10222220004287</v>
+        <v>22.53724894667096</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.40531910759829</v>
+        <v>9.401694381719858</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.06314168284407</v>
+        <v>33.62919217798508</v>
       </c>
       <c r="C19">
-        <v>16.35896341945634</v>
+        <v>30.92768009769998</v>
       </c>
       <c r="D19">
-        <v>4.59450425055316</v>
+        <v>2.69879728957514</v>
       </c>
       <c r="E19">
-        <v>19.34724216780952</v>
+        <v>37.561077151966</v>
       </c>
       <c r="F19">
-        <v>31.65093142035202</v>
+        <v>42.93019434635304</v>
       </c>
       <c r="I19">
-        <v>22.09176951546285</v>
+        <v>22.44981463640265</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.41171741009099</v>
+        <v>9.431967747893935</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.34589493503634</v>
+        <v>34.36785405854955</v>
       </c>
       <c r="C20">
-        <v>16.65207176417217</v>
+        <v>31.62696815066302</v>
       </c>
       <c r="D20">
-        <v>4.584501936216114</v>
+        <v>2.691401001045551</v>
       </c>
       <c r="E20">
-        <v>19.72334489026741</v>
+        <v>38.4760768244961</v>
       </c>
       <c r="F20">
-        <v>31.87372571133859</v>
+        <v>43.91692808665656</v>
       </c>
       <c r="I20">
-        <v>22.13931495439393</v>
+        <v>22.86309723890951</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.38305202843518</v>
+        <v>9.295592429770672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.27185430467744</v>
+        <v>36.80524309225989</v>
       </c>
       <c r="C21">
-        <v>17.6047554181689</v>
+        <v>33.94359370970111</v>
       </c>
       <c r="D21">
-        <v>4.552302405222759</v>
+        <v>2.821263155685778</v>
       </c>
       <c r="E21">
-        <v>20.94048886148515</v>
+        <v>41.54389039004908</v>
       </c>
       <c r="F21">
-        <v>32.62594750916708</v>
+        <v>47.22324070148506</v>
       </c>
       <c r="I21">
-        <v>22.30787765259198</v>
+        <v>24.61616365802252</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.28896761276249</v>
+        <v>8.834215592678083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.85839602782384</v>
+        <v>38.37073018774934</v>
       </c>
       <c r="C22">
-        <v>18.20328529036729</v>
+        <v>35.43949575513988</v>
       </c>
       <c r="D22">
-        <v>4.532320332899815</v>
+        <v>3.016186424538485</v>
       </c>
       <c r="E22">
-        <v>21.70150014141525</v>
+        <v>43.55771486501159</v>
       </c>
       <c r="F22">
-        <v>33.11940869294305</v>
+        <v>49.38679053775809</v>
       </c>
       <c r="I22">
-        <v>22.42453451260911</v>
+        <v>25.77302394925627</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.22912929585626</v>
+        <v>8.529438670042051</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.54709322075044</v>
+        <v>37.5373113321004</v>
       </c>
       <c r="C23">
-        <v>17.88602087264057</v>
+        <v>34.64230568001581</v>
       </c>
       <c r="D23">
-        <v>4.542887053555599</v>
+        <v>2.911368342440921</v>
       </c>
       <c r="E23">
-        <v>21.29847450150497</v>
+        <v>42.48109190442844</v>
       </c>
       <c r="F23">
-        <v>32.85592695077821</v>
+        <v>48.23112682682954</v>
       </c>
       <c r="I23">
-        <v>22.36168411516848</v>
+        <v>25.15416912206474</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.26091560062929</v>
+        <v>8.692458214073184</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.33045602631613</v>
+        <v>34.32747009051623</v>
       </c>
       <c r="C24">
-        <v>16.63609571632843</v>
+        <v>31.58870468796398</v>
       </c>
       <c r="D24">
-        <v>4.58504595660068</v>
+        <v>2.691733941375503</v>
       </c>
       <c r="E24">
-        <v>19.70286661040437</v>
+        <v>38.42588407579181</v>
       </c>
       <c r="F24">
-        <v>31.86147482979894</v>
+        <v>43.86279576860373</v>
       </c>
       <c r="I24">
-        <v>22.13667063217627</v>
+        <v>22.83455325435773</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.38461779248437</v>
+        <v>9.303091303087557</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.94299181732663</v>
+        <v>30.7133467174955</v>
       </c>
       <c r="C25">
-        <v>15.18584752800484</v>
+        <v>28.17878994886882</v>
       </c>
       <c r="D25">
-        <v>4.634995031346753</v>
+        <v>2.751992269205474</v>
       </c>
       <c r="E25">
-        <v>17.83247183317552</v>
+        <v>34.00842044304633</v>
       </c>
       <c r="F25">
-        <v>30.80252218164245</v>
+        <v>39.10715717819859</v>
       </c>
       <c r="I25">
-        <v>21.92230873480763</v>
+        <v>20.97646300240392</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.52519767638384</v>
+        <v>9.953360150729843</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.8922438414572</v>
+        <v>20.87242407011025</v>
       </c>
       <c r="C2">
-        <v>25.53521796938514</v>
+        <v>13.27242926474878</v>
       </c>
       <c r="D2">
-        <v>2.832171597702332</v>
+        <v>4.387717197383561</v>
       </c>
       <c r="E2">
-        <v>30.65112964922558</v>
+        <v>8.711845030086376</v>
       </c>
       <c r="F2">
-        <v>35.76045785144338</v>
+        <v>20.22479525275716</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.725217225272223</v>
       </c>
       <c r="I2">
-        <v>19.69181911499242</v>
+        <v>2.690732913479018</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.75710341408651</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,39 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.43052436411699</v>
+        <v>8.023932816297149</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.25952294933762</v>
+      </c>
+      <c r="Q2">
+        <v>16.08895157407699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.86909735592042</v>
+        <v>19.48340264683712</v>
       </c>
       <c r="C3">
-        <v>23.64811534727374</v>
+        <v>12.65310433073632</v>
       </c>
       <c r="D3">
-        <v>2.901995547316124</v>
+        <v>4.253572145932708</v>
       </c>
       <c r="E3">
-        <v>28.28566950869536</v>
+        <v>8.553258476803014</v>
       </c>
       <c r="F3">
-        <v>33.51157788841216</v>
+        <v>19.55942955677599</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.595636659381878</v>
       </c>
       <c r="I3">
-        <v>18.86234232340843</v>
+        <v>2.532902447096893</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.72459387133406</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,39 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.75534152705688</v>
+        <v>7.712784751961095</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.33704364720734</v>
+      </c>
+      <c r="Q3">
+        <v>15.76548927686077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56886541719793</v>
+        <v>18.60036085342713</v>
       </c>
       <c r="C4">
-        <v>22.43887115665024</v>
+        <v>12.25813201295398</v>
       </c>
       <c r="D4">
-        <v>2.950778573536827</v>
+        <v>4.168574253318558</v>
       </c>
       <c r="E4">
-        <v>26.78223290159749</v>
+        <v>8.452641613298217</v>
       </c>
       <c r="F4">
-        <v>32.11673084449058</v>
+        <v>19.14849154601876</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.725376970918344</v>
       </c>
       <c r="I4">
-        <v>18.3721832003911</v>
+        <v>2.512038136449806</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.70904556831795</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,39 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.95620893751895</v>
+        <v>7.515370966493817</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.38716015523839</v>
+      </c>
+      <c r="Q4">
+        <v>15.57011902669795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.02401132387598</v>
+        <v>18.22206818507112</v>
       </c>
       <c r="C5">
-        <v>21.93293313745091</v>
+        <v>12.09986954098696</v>
       </c>
       <c r="D5">
-        <v>2.971934241416565</v>
+        <v>4.134394162434352</v>
       </c>
       <c r="E5">
-        <v>26.15589780263409</v>
+        <v>8.409303263015103</v>
       </c>
       <c r="F5">
-        <v>31.54488077637458</v>
+        <v>18.97311070602748</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.779749277973562</v>
       </c>
       <c r="I5">
-        <v>18.17714040642554</v>
+        <v>2.558960082610902</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.69830383871938</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,39 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.0385203581176</v>
+        <v>7.433831863989135</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.40896290377915</v>
+      </c>
+      <c r="Q5">
+        <v>15.48550343254278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.93262154749285</v>
+        <v>18.1518006769639</v>
       </c>
       <c r="C6">
-        <v>21.84811538049381</v>
+        <v>12.08109173362586</v>
       </c>
       <c r="D6">
-        <v>2.975518788325161</v>
+        <v>4.130025443374652</v>
       </c>
       <c r="E6">
-        <v>26.05104692988678</v>
+        <v>8.400195516910646</v>
       </c>
       <c r="F6">
-        <v>31.44972419164919</v>
+        <v>18.93473106344354</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.789248809097035</v>
       </c>
       <c r="I6">
-        <v>18.14503500080446</v>
+        <v>2.570944690564571</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.6898834341827</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,39 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.05221836368472</v>
+        <v>7.420731912896293</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.41355418461578</v>
+      </c>
+      <c r="Q6">
+        <v>15.46431207487813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.56157856974053</v>
+        <v>18.57753395472059</v>
       </c>
       <c r="C7">
-        <v>22.43210174805363</v>
+        <v>12.27678289730451</v>
       </c>
       <c r="D7">
-        <v>2.951058968644772</v>
+        <v>4.171768580649162</v>
       </c>
       <c r="E7">
-        <v>26.77384232267414</v>
+        <v>8.447024153498086</v>
       </c>
       <c r="F7">
-        <v>32.10903233721145</v>
+        <v>19.12116060158713</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.727177907195081</v>
       </c>
       <c r="I7">
-        <v>18.36953387339553</v>
+        <v>2.523615942185233</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.69062147285565</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,39 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.95731704758019</v>
+        <v>7.515709777098545</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.39007441430228</v>
+      </c>
+      <c r="Q7">
+        <v>15.54945088769438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.20644188986281</v>
+        <v>20.38285925857037</v>
       </c>
       <c r="C8">
-        <v>24.89475194270237</v>
+        <v>13.08813083157584</v>
       </c>
       <c r="D8">
-        <v>2.854880818658449</v>
+        <v>4.346757705821518</v>
       </c>
       <c r="E8">
-        <v>29.84557149924314</v>
+        <v>8.651402395823986</v>
       </c>
       <c r="F8">
-        <v>34.98794518070542</v>
+        <v>19.96428385537017</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.656262458670997</v>
       </c>
       <c r="I8">
-        <v>19.4017612397056</v>
+        <v>2.639747699518983</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.72093123904483</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,39 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.5422858285662</v>
+        <v>7.919850751279668</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.28951452597663</v>
+      </c>
+      <c r="Q8">
+        <v>15.95160319970562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.95390871059899</v>
+        <v>23.57004892291841</v>
       </c>
       <c r="C9">
-        <v>29.34614839725324</v>
+        <v>14.5248785092884</v>
       </c>
       <c r="D9">
-        <v>2.725064155850748</v>
+        <v>4.66183634208049</v>
       </c>
       <c r="E9">
-        <v>35.50888037415337</v>
+        <v>9.034954027689308</v>
       </c>
       <c r="F9">
-        <v>40.71936342725971</v>
+        <v>21.63127759782576</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.129550823843963</v>
       </c>
       <c r="I9">
-        <v>21.58589836896723</v>
+        <v>3.015474060381509</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.8493758645357</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,39 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.734920048140623</v>
+        <v>8.65645505013444</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.10759316294443</v>
+      </c>
+      <c r="Q9">
+        <v>16.7967001456595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.2089969061988</v>
+        <v>25.58297187956484</v>
       </c>
       <c r="C10">
-        <v>32.42480879410015</v>
+        <v>15.5661456868213</v>
       </c>
       <c r="D10">
-        <v>2.686437085830421</v>
+        <v>4.898456582164166</v>
       </c>
       <c r="E10">
-        <v>39.52608479505153</v>
+        <v>9.198204093847346</v>
       </c>
       <c r="F10">
-        <v>45.04927224049089</v>
+        <v>22.70923319160747</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.445640917109358</v>
       </c>
       <c r="I10">
-        <v>23.46137708826839</v>
+        <v>3.274403705287172</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.88073151039897</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,39 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.13829540049213</v>
+        <v>9.027219110404159</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.00575567465473</v>
+      </c>
+      <c r="Q10">
+        <v>17.3307760023596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.64903289826663</v>
+        <v>25.89901515701725</v>
       </c>
       <c r="C11">
-        <v>33.79468170902404</v>
+        <v>16.51052320868599</v>
       </c>
       <c r="D11">
-        <v>2.802270501529564</v>
+        <v>5.165031332072272</v>
       </c>
       <c r="E11">
-        <v>41.34489862208996</v>
+        <v>8.582822669579192</v>
       </c>
       <c r="F11">
-        <v>47.00905614526303</v>
+        <v>22.23415641631257</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.205228756149205</v>
       </c>
       <c r="I11">
-        <v>24.50204320246736</v>
+        <v>3.3470935600508</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.19637423614201</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,39 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.864282440005534</v>
+        <v>8.052742506463682</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.13159302528667</v>
+      </c>
+      <c r="Q11">
+        <v>16.7859268528169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.18951412301802</v>
+        <v>25.77471684971585</v>
       </c>
       <c r="C12">
-        <v>34.31018023648713</v>
+        <v>17.07856429688173</v>
       </c>
       <c r="D12">
-        <v>2.86833372008839</v>
+        <v>5.342233432486624</v>
       </c>
       <c r="E12">
-        <v>42.03487325557084</v>
+        <v>8.319763753733302</v>
       </c>
       <c r="F12">
-        <v>47.75144517121539</v>
+        <v>21.62523676773316</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.375181370262536</v>
       </c>
       <c r="I12">
-        <v>24.89791480696746</v>
+        <v>3.354848398523389</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.64029448698328</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,39 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.75997826195233</v>
+        <v>7.184984402322987</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.27185826369942</v>
+      </c>
+      <c r="Q12">
+        <v>16.22745042188539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.07330772437369</v>
+        <v>25.28019850467905</v>
       </c>
       <c r="C13">
-        <v>34.19928117885117</v>
+        <v>17.43075220089384</v>
       </c>
       <c r="D13">
-        <v>2.854046627932032</v>
+        <v>5.468497766031389</v>
       </c>
       <c r="E13">
-        <v>41.88617376913957</v>
+        <v>8.322036393354578</v>
       </c>
       <c r="F13">
-        <v>47.59151468370174</v>
+        <v>20.82585981330407</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.645479970441952</v>
       </c>
       <c r="I13">
-        <v>24.81255851083904</v>
+        <v>3.316374421721823</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.12300759344445</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,39 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.782468888334307</v>
+        <v>6.351403264916739</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.43048166578434</v>
+      </c>
+      <c r="Q13">
+        <v>15.58721067701418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.69358868545592</v>
+        <v>24.75519260475673</v>
       </c>
       <c r="C14">
-        <v>33.83714944726761</v>
+        <v>17.58981837577668</v>
       </c>
       <c r="D14">
-        <v>2.807679439987127</v>
+        <v>5.536168498786777</v>
       </c>
       <c r="E14">
-        <v>41.40162213123225</v>
+        <v>8.482591822346631</v>
       </c>
       <c r="F14">
-        <v>47.07011630776576</v>
+        <v>20.16577994107699</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.568770431700647</v>
       </c>
       <c r="I14">
-        <v>24.53456929242995</v>
+        <v>3.269648211084491</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.77907525909975</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,39 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.855713119123889</v>
+        <v>5.803379230883534</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.55090404077779</v>
+      </c>
+      <c r="Q14">
+        <v>15.09389582820858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.46040531118607</v>
+        <v>24.54056419886283</v>
       </c>
       <c r="C15">
-        <v>33.61495007676001</v>
+        <v>17.58917758402312</v>
       </c>
       <c r="D15">
-        <v>2.779445107277638</v>
+        <v>5.542657554729642</v>
       </c>
       <c r="E15">
-        <v>41.10506468584514</v>
+        <v>8.53633953141715</v>
       </c>
       <c r="F15">
-        <v>46.75083704250225</v>
+        <v>19.95627904941645</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.779123489878542</v>
       </c>
       <c r="I15">
-        <v>24.3645599797947</v>
+        <v>3.249081722891706</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.69881473044825</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,39 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.900501670394972</v>
+        <v>5.674010255945054</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.58314485908232</v>
+      </c>
+      <c r="Q15">
+        <v>14.95101656091807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.11415047387663</v>
+        <v>23.77064171538861</v>
       </c>
       <c r="C16">
-        <v>32.33476151847919</v>
+        <v>17.12289817422524</v>
       </c>
       <c r="D16">
-        <v>2.686804271670328</v>
+        <v>5.424997806006745</v>
       </c>
       <c r="E16">
-        <v>39.40724449565226</v>
+        <v>8.451913293034632</v>
       </c>
       <c r="F16">
-        <v>44.92112993682731</v>
+        <v>19.60153460916565</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.510094292916316</v>
       </c>
       <c r="I16">
-        <v>23.39355941073868</v>
+        <v>3.148030450532619</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.78247696602322</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,39 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.156136380598845</v>
+        <v>5.653107171930764</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.58127763379452</v>
+      </c>
+      <c r="Q16">
+        <v>14.81840472292832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.27850018936301</v>
+        <v>23.46039277115308</v>
       </c>
       <c r="C17">
-        <v>31.54231116136836</v>
+        <v>16.6698077664663</v>
       </c>
       <c r="D17">
-        <v>2.692148975013126</v>
+        <v>5.296119081981376</v>
       </c>
       <c r="E17">
-        <v>38.36504639182245</v>
+        <v>8.27398048295975</v>
       </c>
       <c r="F17">
-        <v>43.79718323619682</v>
+        <v>19.69251616789439</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.764504096002274</v>
       </c>
       <c r="I17">
-        <v>22.79996283749892</v>
+        <v>3.095360378115857</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.02624581636367</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,39 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.312177880031811</v>
+        <v>5.921991880840789</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.51773156942539</v>
+      </c>
+      <c r="Q17">
+        <v>14.98519248329134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.79395079730128</v>
+        <v>23.53555166946608</v>
       </c>
       <c r="C18">
-        <v>31.08354948193671</v>
+        <v>16.16850298340391</v>
       </c>
       <c r="D18">
-        <v>2.696912017307227</v>
+        <v>5.142816341463067</v>
       </c>
       <c r="E18">
-        <v>37.76461027725721</v>
+        <v>8.146623915676027</v>
       </c>
       <c r="F18">
-        <v>43.14966030493457</v>
+        <v>20.19129612291255</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.564614831047127</v>
       </c>
       <c r="I18">
-        <v>22.53724894667096</v>
+        <v>3.077283432463408</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.45353195013671</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,39 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.401694381719858</v>
+        <v>6.523541461393833</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.39680484630075</v>
+      </c>
+      <c r="Q18">
+        <v>15.4383963427713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.62919217798508</v>
+        <v>23.8878300278819</v>
       </c>
       <c r="C19">
-        <v>30.92768009769998</v>
+        <v>15.71279823237951</v>
       </c>
       <c r="D19">
-        <v>2.69879728957514</v>
+        <v>4.993031599916598</v>
       </c>
       <c r="E19">
-        <v>37.561077151966</v>
+        <v>8.300368876913865</v>
       </c>
       <c r="F19">
-        <v>42.93019434635304</v>
+        <v>20.92913355966613</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.245497048398478</v>
       </c>
       <c r="I19">
-        <v>22.44981463640265</v>
+        <v>3.09877110496903</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.97951135905835</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,39 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.431967747893935</v>
+        <v>7.402784356566496</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.25689221345359</v>
+      </c>
+      <c r="Q19">
+        <v>16.05028787446156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.36785405854955</v>
+        <v>25.02584252290336</v>
       </c>
       <c r="C20">
-        <v>31.62696815066302</v>
+        <v>15.35527817659367</v>
       </c>
       <c r="D20">
-        <v>2.691401001045551</v>
+        <v>4.848702134126375</v>
       </c>
       <c r="E20">
-        <v>38.4760768244961</v>
+        <v>9.137777409951546</v>
       </c>
       <c r="F20">
-        <v>43.91692808665656</v>
+        <v>22.35628065851525</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.35941687456859</v>
       </c>
       <c r="I20">
-        <v>22.86309723890951</v>
+        <v>3.215365837809101</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.8121565697358</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,39 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.295592429770672</v>
+        <v>8.929396635717262</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.04281293835296</v>
+      </c>
+      <c r="Q20">
+        <v>17.1308295565855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.80524309225989</v>
+        <v>26.5965629365526</v>
       </c>
       <c r="C21">
-        <v>33.94359370970111</v>
+        <v>16.03338252259573</v>
       </c>
       <c r="D21">
-        <v>2.821263155685778</v>
+        <v>4.995596229115448</v>
       </c>
       <c r="E21">
-        <v>41.54389039004908</v>
+        <v>9.417478755634935</v>
       </c>
       <c r="F21">
-        <v>47.22324070148506</v>
+        <v>23.35489728297366</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.614906966186464</v>
       </c>
       <c r="I21">
-        <v>24.61616365802252</v>
+        <v>3.417206195731373</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.97852394233318</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,39 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.834215592678083</v>
+        <v>9.411172823605197</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.94155199839612</v>
+      </c>
+      <c r="Q21">
+        <v>17.69247332770445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.37073018774934</v>
+        <v>27.56105476927672</v>
       </c>
       <c r="C22">
-        <v>35.43949575513988</v>
+        <v>16.46871166424956</v>
       </c>
       <c r="D22">
-        <v>3.016186424538485</v>
+        <v>5.093723647234988</v>
       </c>
       <c r="E22">
-        <v>43.55771486501159</v>
+        <v>9.551453171542136</v>
       </c>
       <c r="F22">
-        <v>49.38679053775809</v>
+        <v>23.97045585074234</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.773090047721864</v>
       </c>
       <c r="I22">
-        <v>25.77302394925627</v>
+        <v>3.540996322084531</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.07488271747011</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,39 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.529438670042051</v>
+        <v>9.647593332697296</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.88186304849014</v>
+      </c>
+      <c r="Q22">
+        <v>18.03690220759719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.5373113321004</v>
+        <v>27.06560038962806</v>
       </c>
       <c r="C23">
-        <v>34.64230568001581</v>
+        <v>16.21805130852526</v>
       </c>
       <c r="D23">
-        <v>2.911368342440921</v>
+        <v>5.037749794007142</v>
       </c>
       <c r="E23">
-        <v>42.48109190442844</v>
+        <v>9.485315328860649</v>
       </c>
       <c r="F23">
-        <v>48.23112682682954</v>
+        <v>23.66685839306269</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.689938572833625</v>
       </c>
       <c r="I23">
-        <v>25.15416912206474</v>
+        <v>3.471978965521422</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.04368519707157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,39 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.692458214073184</v>
+        <v>9.52063860192176</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.90924267083017</v>
+      </c>
+      <c r="Q23">
+        <v>17.87316144583263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.32747009051623</v>
+        <v>25.07355492476385</v>
       </c>
       <c r="C24">
-        <v>31.58870468796398</v>
+        <v>15.26986240659831</v>
       </c>
       <c r="D24">
-        <v>2.691733941375503</v>
+        <v>4.826038006513573</v>
       </c>
       <c r="E24">
-        <v>38.42588407579181</v>
+        <v>9.221379807227809</v>
       </c>
       <c r="F24">
-        <v>43.86279576860373</v>
+        <v>22.4644722928389</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.366839436665966</v>
       </c>
       <c r="I24">
-        <v>22.83455325435773</v>
+        <v>3.210993401900955</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.90389532086089</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,39 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.303091303087557</v>
+        <v>9.027516455235506</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.02510062041064</v>
+      </c>
+      <c r="Q24">
+        <v>17.22379048404447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.7133467174955</v>
+        <v>22.72720337324356</v>
       </c>
       <c r="C25">
-        <v>28.17878994886882</v>
+        <v>14.18273299301555</v>
       </c>
       <c r="D25">
-        <v>2.751992269205474</v>
+        <v>4.585297496966452</v>
       </c>
       <c r="E25">
-        <v>34.00842044304633</v>
+        <v>8.925571842583226</v>
       </c>
       <c r="F25">
-        <v>39.10715717819859</v>
+        <v>21.14379235104485</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.003496564669018</v>
       </c>
       <c r="I25">
-        <v>20.97646300240392</v>
+        <v>2.920530707184867</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.77804050650573</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.953360150729843</v>
+        <v>8.465673163359735</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.16026429279013</v>
+      </c>
+      <c r="Q25">
+        <v>16.53297429026972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.87242407011025</v>
+        <v>20.54818353703483</v>
       </c>
       <c r="C2">
-        <v>13.27242926474878</v>
+        <v>13.59486707054403</v>
       </c>
       <c r="D2">
-        <v>4.387717197383561</v>
+        <v>4.434710490870117</v>
       </c>
       <c r="E2">
-        <v>8.711845030086376</v>
+        <v>8.604850268743611</v>
       </c>
       <c r="F2">
-        <v>20.22479525275716</v>
+        <v>19.60206836664746</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.725217225272223</v>
+        <v>1.777236682970603</v>
       </c>
       <c r="I2">
-        <v>2.690732913479018</v>
+        <v>2.755331428625651</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.75710341408651</v>
+        <v>14.17946541142818</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.3658433865534</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.682514276818232</v>
       </c>
       <c r="N2">
-        <v>8.023932816297149</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.25952294933762</v>
+        <v>8.101898284223518</v>
       </c>
       <c r="Q2">
-        <v>16.08895157407699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.26499237461518</v>
+      </c>
+      <c r="S2">
+        <v>15.56090454503905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.48340264683712</v>
+        <v>19.21213987371826</v>
       </c>
       <c r="C3">
-        <v>12.65310433073632</v>
+        <v>12.88439385102718</v>
       </c>
       <c r="D3">
-        <v>4.253572145932708</v>
+        <v>4.280741048651391</v>
       </c>
       <c r="E3">
-        <v>8.553258476803014</v>
+        <v>8.463721199532896</v>
       </c>
       <c r="F3">
-        <v>19.55942955677599</v>
+        <v>19.00310586423092</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.595636659381878</v>
+        <v>1.590538161953206</v>
       </c>
       <c r="I3">
-        <v>2.532902447096893</v>
+        <v>2.612280664543597</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>14.72459387133406</v>
+        <v>14.19419858378957</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.4834871770281</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.583582266261931</v>
       </c>
       <c r="N3">
-        <v>7.712784751961095</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.33704364720734</v>
+        <v>7.792791341108594</v>
       </c>
       <c r="Q3">
-        <v>15.76548927686077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.31690954564118</v>
+      </c>
+      <c r="S3">
+        <v>15.29070318376613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60036085342713</v>
+        <v>18.33862735606933</v>
       </c>
       <c r="C4">
-        <v>12.25813201295398</v>
+        <v>12.43054619965838</v>
       </c>
       <c r="D4">
-        <v>4.168574253318558</v>
+        <v>4.183210662789291</v>
       </c>
       <c r="E4">
-        <v>8.452641613298217</v>
+        <v>8.374002762088239</v>
       </c>
       <c r="F4">
-        <v>19.14849154601876</v>
+        <v>18.63303791135878</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.725376970918344</v>
+        <v>1.651699543330768</v>
       </c>
       <c r="I4">
-        <v>2.512038136449806</v>
+        <v>2.521992093572035</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.70904556831795</v>
+        <v>14.20650567946987</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.55613578718236</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.544689419576914</v>
       </c>
       <c r="N4">
-        <v>7.515370966493817</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.38716015523839</v>
+        <v>7.596945960706908</v>
       </c>
       <c r="Q4">
-        <v>15.57011902669795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.35180509779224</v>
+      </c>
+      <c r="S4">
+        <v>15.12761506515783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22206818507112</v>
+        <v>17.96382281255814</v>
       </c>
       <c r="C5">
-        <v>12.09986954098696</v>
+        <v>12.24786689775051</v>
       </c>
       <c r="D5">
-        <v>4.134394162434352</v>
+        <v>4.143897566599308</v>
       </c>
       <c r="E5">
-        <v>8.409303263015103</v>
+        <v>8.335200376579033</v>
       </c>
       <c r="F5">
-        <v>18.97311070602748</v>
+        <v>18.47432996187677</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.779749277973562</v>
+        <v>1.7027929425524</v>
       </c>
       <c r="I5">
-        <v>2.558960082610902</v>
+        <v>2.485592025355237</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.69830383871938</v>
+        <v>14.20701795781704</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.58117283543875</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.531087752601517</v>
       </c>
       <c r="N5">
-        <v>7.433831863989135</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.40896290377915</v>
+        <v>7.516128594945876</v>
       </c>
       <c r="Q5">
-        <v>15.48550343254278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.36764198396202</v>
+      </c>
+      <c r="S5">
+        <v>15.05608309906857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1518006769639</v>
+        <v>17.89415984309421</v>
       </c>
       <c r="C6">
-        <v>12.08109173362586</v>
+        <v>12.22533682547388</v>
       </c>
       <c r="D6">
-        <v>4.130025443374652</v>
+        <v>4.138739866492176</v>
       </c>
       <c r="E6">
-        <v>8.400195516910646</v>
+        <v>8.326914141689125</v>
       </c>
       <c r="F6">
-        <v>18.93473106344354</v>
+        <v>18.43876819149124</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.789248809097035</v>
+        <v>1.711737206570052</v>
       </c>
       <c r="I6">
-        <v>2.570944690564571</v>
+        <v>2.481020665856204</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.6898834341827</v>
+        <v>14.20068704675821</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.57963187504264</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.525122310709138</v>
       </c>
       <c r="N6">
-        <v>7.420731912896293</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.41355418461578</v>
+        <v>7.503151630619781</v>
       </c>
       <c r="Q6">
-        <v>15.46431207487813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.37139109819649</v>
+      </c>
+      <c r="S6">
+        <v>15.03713516092842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57753395472059</v>
+        <v>18.31600388920509</v>
       </c>
       <c r="C7">
-        <v>12.27678289730451</v>
+        <v>12.44978607329302</v>
       </c>
       <c r="D7">
-        <v>4.171768580649162</v>
+        <v>4.18652116946633</v>
       </c>
       <c r="E7">
-        <v>8.447024153498086</v>
+        <v>8.368632381702707</v>
       </c>
       <c r="F7">
-        <v>19.12116060158713</v>
+        <v>18.60608405465248</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.727177907195081</v>
+        <v>1.653436184103139</v>
       </c>
       <c r="I7">
-        <v>2.523615942185233</v>
+        <v>2.525122263406757</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>14.69062147285565</v>
+        <v>14.18892012762903</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.54127454594682</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.533012668547682</v>
       </c>
       <c r="N7">
-        <v>7.515709777098545</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.39007441430228</v>
+        <v>7.597289652705146</v>
       </c>
       <c r="Q7">
-        <v>15.54945088769438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.35503880528859</v>
+      </c>
+      <c r="S7">
+        <v>15.10735402181867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.38285925857037</v>
+        <v>20.07702223775181</v>
       </c>
       <c r="C8">
-        <v>13.08813083157584</v>
+        <v>13.38085378822187</v>
       </c>
       <c r="D8">
-        <v>4.346757705821518</v>
+        <v>4.387232894891032</v>
       </c>
       <c r="E8">
-        <v>8.651402395823986</v>
+        <v>8.550655816026536</v>
       </c>
       <c r="F8">
-        <v>19.96428385537017</v>
+        <v>19.36463031714853</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.656262458670997</v>
+        <v>1.712466370819937</v>
       </c>
       <c r="I8">
-        <v>2.639747699518983</v>
+        <v>2.71046712020138</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.72093123904483</v>
+        <v>14.16085541631961</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.38779521166783</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.627107502461103</v>
       </c>
       <c r="N8">
-        <v>7.919850751279668</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.28951452597663</v>
+        <v>7.998456805995775</v>
       </c>
       <c r="Q8">
-        <v>15.95160319970562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.28663743159184</v>
+      </c>
+      <c r="S8">
+        <v>15.44232696978092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57004892291841</v>
+        <v>23.13910027978917</v>
       </c>
       <c r="C9">
-        <v>14.5248785092884</v>
+        <v>15.02705181005396</v>
       </c>
       <c r="D9">
-        <v>4.66183634208049</v>
+        <v>4.749235895091787</v>
       </c>
       <c r="E9">
-        <v>9.034954027689308</v>
+        <v>8.891581218187174</v>
       </c>
       <c r="F9">
-        <v>21.63127759782576</v>
+        <v>20.86813312885275</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.129550823843963</v>
+        <v>2.156472217612447</v>
       </c>
       <c r="I9">
-        <v>3.015474060381509</v>
+        <v>3.050317056402641</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.8493758645357</v>
+        <v>14.16431650887997</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.11427695834473</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.004200748712488</v>
       </c>
       <c r="N9">
-        <v>8.65645505013444</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.10759316294443</v>
+        <v>8.73150962199486</v>
       </c>
       <c r="Q9">
-        <v>16.7967001456595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.17109193611686</v>
+      </c>
+      <c r="S9">
+        <v>16.15319312228631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.58297187956484</v>
+        <v>25.0744925188377</v>
       </c>
       <c r="C10">
-        <v>15.5661456868213</v>
+        <v>16.20149508814132</v>
       </c>
       <c r="D10">
-        <v>4.898456582164166</v>
+        <v>5.017355153991343</v>
       </c>
       <c r="E10">
-        <v>9.198204093847346</v>
+        <v>9.03243443783129</v>
       </c>
       <c r="F10">
-        <v>22.70923319160747</v>
+        <v>21.83938990436835</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.445640917109358</v>
+        <v>2.452461578261721</v>
       </c>
       <c r="I10">
-        <v>3.274403705287172</v>
+        <v>3.285671450351753</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.88073151039897</v>
+        <v>14.11003340877699</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.86299917562886</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.310120044858921</v>
       </c>
       <c r="N10">
-        <v>9.027219110404159</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.00575567465473</v>
+        <v>9.100036093193186</v>
       </c>
       <c r="Q10">
-        <v>17.3307760023596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.12166031513031</v>
+      </c>
+      <c r="S10">
+        <v>16.59761592496397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.89901515701725</v>
+        <v>25.40788016963885</v>
       </c>
       <c r="C11">
-        <v>16.51052320868599</v>
+        <v>17.15208527403612</v>
       </c>
       <c r="D11">
-        <v>5.165031332072272</v>
+        <v>5.290496155665027</v>
       </c>
       <c r="E11">
-        <v>8.582822669579192</v>
+        <v>8.478253134427735</v>
       </c>
       <c r="F11">
-        <v>22.23415641631257</v>
+        <v>21.39903542366881</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.205228756149205</v>
+        <v>3.206960799196931</v>
       </c>
       <c r="I11">
-        <v>3.3470935600508</v>
+        <v>3.354719225837778</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>14.19637423614201</v>
+        <v>13.48341114954966</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.34983723044137</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.933199684828491</v>
       </c>
       <c r="N11">
-        <v>8.052742506463682</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.13159302528667</v>
+        <v>8.1176066984633</v>
       </c>
       <c r="Q11">
-        <v>16.7859268528169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.27580140702248</v>
+      </c>
+      <c r="S11">
+        <v>16.08508699836426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.77471684971585</v>
+        <v>25.31434036878565</v>
       </c>
       <c r="C12">
-        <v>17.07856429688173</v>
+        <v>17.694070896167</v>
       </c>
       <c r="D12">
-        <v>5.342233432486624</v>
+        <v>5.465282371975889</v>
       </c>
       <c r="E12">
-        <v>8.319763753733302</v>
+        <v>8.273587411030979</v>
       </c>
       <c r="F12">
-        <v>21.62523676773316</v>
+        <v>20.84252686585792</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.375181370262536</v>
+        <v>4.376413267293403</v>
       </c>
       <c r="I12">
-        <v>3.354848398523389</v>
+        <v>3.362311519475206</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.64029448698328</v>
+        <v>12.99447480475767</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.00212093065645</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.559146994925463</v>
       </c>
       <c r="N12">
-        <v>7.184984402322987</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.27185826369942</v>
+        <v>7.242545984174592</v>
       </c>
       <c r="Q12">
-        <v>16.22745042188539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.42478958413357</v>
+      </c>
+      <c r="S12">
+        <v>15.57336550271243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.28019850467905</v>
+        <v>24.86392562612755</v>
       </c>
       <c r="C13">
-        <v>17.43075220089384</v>
+        <v>17.99511076947907</v>
       </c>
       <c r="D13">
-        <v>5.468497766031389</v>
+        <v>5.58263977070195</v>
       </c>
       <c r="E13">
-        <v>8.322036393354578</v>
+        <v>8.328549523013589</v>
       </c>
       <c r="F13">
-        <v>20.82585981330407</v>
+        <v>20.11401553574364</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.645479970441952</v>
+        <v>5.647845480997537</v>
       </c>
       <c r="I13">
-        <v>3.316374421721823</v>
+        <v>3.327818521220496</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.12300759344445</v>
+        <v>12.55664993638895</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.73201136136035</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.145361348568906</v>
       </c>
       <c r="N13">
-        <v>6.351403264916739</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.43048166578434</v>
+        <v>6.401816051524059</v>
       </c>
       <c r="Q13">
-        <v>15.58721067701418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.57847827754875</v>
+      </c>
+      <c r="S13">
+        <v>14.99518834237002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.75519260475673</v>
+        <v>24.37648819692451</v>
       </c>
       <c r="C14">
-        <v>17.58981837577668</v>
+        <v>18.10646075309668</v>
       </c>
       <c r="D14">
-        <v>5.536168498786777</v>
+        <v>5.641077427255891</v>
       </c>
       <c r="E14">
-        <v>8.482591822346631</v>
+        <v>8.519077381419358</v>
       </c>
       <c r="F14">
-        <v>20.16577994107699</v>
+        <v>19.51263739753692</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.568770431700647</v>
+        <v>6.572138350688054</v>
       </c>
       <c r="I14">
-        <v>3.269648211084491</v>
+        <v>3.2860255524243</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.77907525909975</v>
+        <v>12.27330264123151</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.57309966992281</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.84035250042253</v>
       </c>
       <c r="N14">
-        <v>5.803379230883534</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.55090404077779</v>
+        <v>5.848875589049539</v>
       </c>
       <c r="Q14">
-        <v>15.09389582820858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.68917859283482</v>
+      </c>
+      <c r="S14">
+        <v>14.5526464241152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.54056419886283</v>
+        <v>24.17403729979082</v>
       </c>
       <c r="C15">
-        <v>17.58917758402312</v>
+        <v>18.08921144621887</v>
       </c>
       <c r="D15">
-        <v>5.542657554729642</v>
+        <v>5.644109711684086</v>
       </c>
       <c r="E15">
-        <v>8.53633953141715</v>
+        <v>8.578683042728352</v>
       </c>
       <c r="F15">
-        <v>19.95627904941645</v>
+        <v>19.32143621559729</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.779123489878542</v>
+        <v>6.782941353411166</v>
       </c>
       <c r="I15">
-        <v>3.249081722891706</v>
+        <v>3.26805660640582</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>12.69881473044825</v>
+        <v>12.21026163973429</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.54390886794585</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.756575265429802</v>
       </c>
       <c r="N15">
-        <v>5.674010255945054</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.58314485908232</v>
+        <v>5.718612248529475</v>
       </c>
       <c r="Q15">
-        <v>14.95101656091807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.71671084891246</v>
+      </c>
+      <c r="S15">
+        <v>14.42539387629504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.77064171538861</v>
+        <v>23.43085395736643</v>
       </c>
       <c r="C16">
-        <v>17.12289817422524</v>
+        <v>17.57744076165276</v>
       </c>
       <c r="D16">
-        <v>5.424997806006745</v>
+        <v>5.515457173431185</v>
       </c>
       <c r="E16">
-        <v>8.451913293034632</v>
+        <v>8.488637159034381</v>
       </c>
       <c r="F16">
-        <v>19.60153460916565</v>
+        <v>19.00116678818289</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.510094292916316</v>
+        <v>6.516395678427199</v>
       </c>
       <c r="I16">
-        <v>3.148030450532619</v>
+        <v>3.176858129698508</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.78247696602322</v>
+        <v>12.31314880656633</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.66499157030898</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.715616580635808</v>
       </c>
       <c r="N16">
-        <v>5.653107171930764</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.58127763379452</v>
+        <v>5.701401756956558</v>
       </c>
       <c r="Q16">
-        <v>14.81840472292832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.69342120050113</v>
+      </c>
+      <c r="S16">
+        <v>14.32060282874346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.46039277115308</v>
+        <v>23.12040229581957</v>
       </c>
       <c r="C17">
-        <v>16.6698077664663</v>
+        <v>17.11524532989493</v>
       </c>
       <c r="D17">
-        <v>5.296119081981376</v>
+        <v>5.383072692534642</v>
       </c>
       <c r="E17">
-        <v>8.27398048295975</v>
+        <v>8.292647300719802</v>
       </c>
       <c r="F17">
-        <v>19.69251616789439</v>
+        <v>19.0863825011592</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.764504096002274</v>
+        <v>5.772786607135693</v>
       </c>
       <c r="I17">
-        <v>3.095360378115857</v>
+        <v>3.129236642635521</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>13.02624581636367</v>
+        <v>12.54020968671561</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.84906202730857</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.841616858454572</v>
       </c>
       <c r="N17">
-        <v>5.921991880840789</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.51773156942539</v>
+        <v>5.975419611847689</v>
       </c>
       <c r="Q17">
-        <v>14.98519248329134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.61884261875757</v>
+      </c>
+      <c r="S17">
+        <v>14.48114847347597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.53555166946608</v>
+        <v>23.17167128268596</v>
       </c>
       <c r="C18">
-        <v>16.16850298340391</v>
+        <v>16.63432344654821</v>
       </c>
       <c r="D18">
-        <v>5.142816341463067</v>
+        <v>5.231890643799965</v>
       </c>
       <c r="E18">
-        <v>8.146623915676027</v>
+        <v>8.129225435490579</v>
       </c>
       <c r="F18">
-        <v>20.19129612291255</v>
+        <v>19.54419138244328</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.564614831047127</v>
+        <v>4.575381811867972</v>
       </c>
       <c r="I18">
-        <v>3.077283432463408</v>
+        <v>3.111284411947076</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.45353195013671</v>
+        <v>12.9175338696817</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.12688249674438</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.128439693701765</v>
       </c>
       <c r="N18">
-        <v>6.523541461393833</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.39680484630075</v>
+        <v>6.583154701330598</v>
       </c>
       <c r="Q18">
-        <v>15.4383963427713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.49285242919713</v>
+      </c>
+      <c r="S18">
+        <v>14.89822264906932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.8878300278819</v>
+        <v>23.48337452050265</v>
       </c>
       <c r="C19">
-        <v>15.71279823237951</v>
+        <v>16.2199347969924</v>
       </c>
       <c r="D19">
-        <v>4.993031599916598</v>
+        <v>5.088055876977205</v>
       </c>
       <c r="E19">
-        <v>8.300368876913865</v>
+        <v>8.230187517339745</v>
       </c>
       <c r="F19">
-        <v>20.92913355966613</v>
+        <v>20.21684763136216</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.245497048398478</v>
+        <v>3.25977799151871</v>
       </c>
       <c r="I19">
-        <v>3.09877110496903</v>
+        <v>3.130860822446273</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>13.97951135905835</v>
+        <v>13.37125597988074</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.44937900978053</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.504218502155716</v>
       </c>
       <c r="N19">
-        <v>7.402784356566496</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.25689221345359</v>
+        <v>7.468594275337168</v>
       </c>
       <c r="Q19">
-        <v>16.05028787446156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.35172427233451</v>
+      </c>
+      <c r="S19">
+        <v>15.4534676340686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.02584252290336</v>
+        <v>24.53777782334914</v>
       </c>
       <c r="C20">
-        <v>15.35527817659367</v>
+        <v>15.9583556807563</v>
       </c>
       <c r="D20">
-        <v>4.848702134126375</v>
+        <v>4.959946455833047</v>
       </c>
       <c r="E20">
-        <v>9.137777409951546</v>
+        <v>8.978808030586997</v>
       </c>
       <c r="F20">
-        <v>22.35628065851525</v>
+        <v>21.51511751815062</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.35941687456859</v>
+        <v>2.371555823898542</v>
       </c>
       <c r="I20">
-        <v>3.215365837809101</v>
+        <v>3.235895447221901</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.8121565697358</v>
+        <v>14.06753512251117</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.8900494231488</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.17736598735087</v>
       </c>
       <c r="N20">
-        <v>8.929396635717262</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.04281293835296</v>
+        <v>9.002740210991188</v>
       </c>
       <c r="Q20">
-        <v>17.1308295565855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.14638244367547</v>
+      </c>
+      <c r="S20">
+        <v>16.42229596656207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5965629365526</v>
+        <v>26.04222755404285</v>
       </c>
       <c r="C21">
-        <v>16.03338252259573</v>
+        <v>16.74195388740975</v>
       </c>
       <c r="D21">
-        <v>4.995596229115448</v>
+        <v>5.131181993181542</v>
       </c>
       <c r="E21">
-        <v>9.417478755634935</v>
+        <v>9.229809547697366</v>
       </c>
       <c r="F21">
-        <v>23.35489728297366</v>
+        <v>22.41868687700586</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.614906966186464</v>
+        <v>2.611079096241459</v>
       </c>
       <c r="I21">
-        <v>3.417206195731373</v>
+        <v>3.418491231601343</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.97852394233318</v>
+        <v>14.1490329589129</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.77993545910279</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.536535831728751</v>
       </c>
       <c r="N21">
-        <v>9.411172823605197</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.94155199839612</v>
+        <v>9.484212053126191</v>
       </c>
       <c r="Q21">
-        <v>17.69247332770445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.08500297352227</v>
+      </c>
+      <c r="S21">
+        <v>16.90256677090612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.56105476927672</v>
+        <v>26.967788681073</v>
       </c>
       <c r="C22">
-        <v>16.46871166424956</v>
+        <v>17.23972547865846</v>
       </c>
       <c r="D22">
-        <v>5.093723647234988</v>
+        <v>5.244175087553053</v>
       </c>
       <c r="E22">
-        <v>9.551453171542136</v>
+        <v>9.348861773424598</v>
       </c>
       <c r="F22">
-        <v>23.97045585074234</v>
+        <v>22.97795174936619</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.773090047721864</v>
+        <v>2.759163357921547</v>
       </c>
       <c r="I22">
-        <v>3.540996322084531</v>
+        <v>3.529016390608313</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>15.07488271747011</v>
+        <v>14.19353503930786</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.6980321668116</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.774469695804475</v>
       </c>
       <c r="N22">
-        <v>9.647593332697296</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.88186304849014</v>
+        <v>9.720182542739755</v>
       </c>
       <c r="Q22">
-        <v>18.03690220759719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.05155850462152</v>
+      </c>
+      <c r="S22">
+        <v>17.1983156573789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.06560038962806</v>
+        <v>26.49287983043386</v>
       </c>
       <c r="C23">
-        <v>16.21805130852526</v>
+        <v>16.95534986135053</v>
       </c>
       <c r="D23">
-        <v>5.037749794007142</v>
+        <v>5.180147791536956</v>
       </c>
       <c r="E23">
-        <v>9.485315328860649</v>
+        <v>9.290391095296794</v>
       </c>
       <c r="F23">
-        <v>23.66685839306269</v>
+        <v>22.70409612361396</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.689938572833625</v>
+        <v>2.681357616827619</v>
       </c>
       <c r="I23">
-        <v>3.471978965521422</v>
+        <v>3.465846555595419</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>15.04368519707157</v>
+        <v>14.18903269256474</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.75464325721758</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.663414262350679</v>
       </c>
       <c r="N23">
-        <v>9.52063860192176</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.90924267083017</v>
+        <v>9.593447951107843</v>
       </c>
       <c r="Q23">
-        <v>17.87316144583263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.06425528921214</v>
+      </c>
+      <c r="S23">
+        <v>17.06021954323122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.07355492476385</v>
+        <v>24.5816530361837</v>
       </c>
       <c r="C24">
-        <v>15.26986240659831</v>
+        <v>15.87462846342087</v>
       </c>
       <c r="D24">
-        <v>4.826038006513573</v>
+        <v>4.937179079713598</v>
       </c>
       <c r="E24">
-        <v>9.221379807227809</v>
+        <v>9.056439857211366</v>
       </c>
       <c r="F24">
-        <v>22.4644722928389</v>
+        <v>21.61696360087376</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.366839436665966</v>
+        <v>2.378801115404634</v>
       </c>
       <c r="I24">
-        <v>3.210993401900955</v>
+        <v>3.229352637512565</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.90389532086089</v>
+        <v>14.15029330722351</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.95017495189551</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.243290412663075</v>
       </c>
       <c r="N24">
-        <v>9.027516455235506</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.02510062041064</v>
+        <v>9.101432005858664</v>
       </c>
       <c r="Q24">
-        <v>17.22379048404447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.12660894342591</v>
+      </c>
+      <c r="S24">
+        <v>16.50945035911569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.72720337324356</v>
+        <v>22.32876542811064</v>
       </c>
       <c r="C25">
-        <v>14.18273299301555</v>
+        <v>14.63217780350234</v>
       </c>
       <c r="D25">
-        <v>4.585297496966452</v>
+        <v>4.66068831161032</v>
       </c>
       <c r="E25">
-        <v>8.925571842583226</v>
+        <v>8.793934595122344</v>
       </c>
       <c r="F25">
-        <v>21.14379235104485</v>
+        <v>20.42466009650055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.003496564669018</v>
+        <v>2.038218587726419</v>
       </c>
       <c r="I25">
-        <v>2.920530707184867</v>
+        <v>2.966461942479695</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.77804050650573</v>
+        <v>14.12930530386818</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.16512972274145</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.859893750205817</v>
       </c>
       <c r="N25">
-        <v>8.465673163359735</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.16026429279013</v>
+        <v>8.541480557553257</v>
       </c>
       <c r="Q25">
-        <v>16.53297429026972</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.2062228449987</v>
+      </c>
+      <c r="S25">
+        <v>15.92629054011474</v>
       </c>
     </row>
   </sheetData>
